--- a/ASHRAE901_ApartmentHighRise_STD2019_TucsonTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_TucsonTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1905.89</t>
+          <t>2881.76</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1480.83</t>
+          <t>2758.13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>382.73</t>
+          <t>501.58</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1288.98</t>
+          <t>2434.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1060.87</t>
+          <t>1980.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1055.81</t>
+          <t>1974.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1381.18</t>
+          <t>1978.33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1377.22</t>
+          <t>2051.68</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2171.41</t>
+          <t>3410.67</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1710.50</t>
+          <t>3150.22</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1859.67</t>
+          <t>2772.92</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1428.77</t>
+          <t>2658.47</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1135.83</t>
+          <t>2103.06</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1129.70</t>
+          <t>2097.64</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1451.34</t>
+          <t>2115.00</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1447.43</t>
+          <t>2117.78</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2197.74</t>
+          <t>3255.23</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1699.33</t>
+          <t>3126.10</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1844.57</t>
+          <t>2756.63</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1421.40</t>
+          <t>2646.20</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1122.45</t>
+          <t>2081.81</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1116.59</t>
+          <t>2084.89</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1439.31</t>
+          <t>2069.68</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1434.77</t>
+          <t>2094.61</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2138.82</t>
+          <t>3388.08</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1693.17</t>
+          <t>3136.24</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1856.08</t>
+          <t>2805.21</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1423.01</t>
+          <t>2667.98</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1120.17</t>
+          <t>2088.20</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1114.87</t>
+          <t>2082.24</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1444.96</t>
+          <t>2091.08</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1441.05</t>
+          <t>2077.53</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2305.29</t>
+          <t>3391.89</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1713.91</t>
+          <t>3166.16</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1867.32</t>
+          <t>2742.55</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1422.12</t>
+          <t>2682.19</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1116.39</t>
+          <t>2096.95</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1112.15</t>
+          <t>2090.60</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1451.69</t>
+          <t>2052.00</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1448.16</t>
+          <t>2048.20</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2300.86</t>
+          <t>3400.71</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1339.04</t>
+          <t>3141.52</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>1900.19</t>
+          <t>2759.74</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1421.20</t>
+          <t>2694.13</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1113.63</t>
+          <t>2093.79</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1109.89</t>
+          <t>2096.74</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1457.16</t>
+          <t>2054.51</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1453.87</t>
+          <t>2047.23</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2109.27</t>
+          <t>3405.27</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>1055.04</t>
+          <t>3153.13</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>1908.72</t>
+          <t>2781.80</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1420.66</t>
+          <t>2694.47</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1112.05</t>
+          <t>2089.58</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1108.44</t>
+          <t>2083.09</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1462.08</t>
+          <t>2065.55</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1458.91</t>
+          <t>2058.10</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2013.89</t>
+          <t>3234.50</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>860.15</t>
+          <t>3170.67</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>1918.77</t>
+          <t>2800.77</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1425.49</t>
+          <t>2713.47</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1116.31</t>
+          <t>2105.68</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1112.62</t>
+          <t>2098.99</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1471.67</t>
+          <t>2080.55</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1468.50</t>
+          <t>2073.25</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2424.05</t>
+          <t>3338.04</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>1164.99</t>
+          <t>3278.20</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>1964.79</t>
+          <t>2878.24</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1489.72</t>
+          <t>2819.69</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1175.67</t>
+          <t>2213.60</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1171.60</t>
+          <t>2217.26</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1552.51</t>
+          <t>2170.48</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1548.18</t>
+          <t>2163.64</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>2879.37</t>
+          <t>4109.81</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>1693.15</t>
+          <t>3937.72</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2422.65</t>
+          <t>3592.95</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1431.57</t>
+          <t>3392.29</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1433.77</t>
+          <t>2676.10</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1422.99</t>
+          <t>2658.28</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2608.07</t>
+          <t>2819.87</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2606.07</t>
+          <t>2818.23</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>115.75</t>
+          <t>2847.73</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>115.48</t>
+          <t>2844.33</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>253.21</t>
+          <t>547.79</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>115.01</t>
+          <t>2476.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>125.63</t>
+          <t>1995.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>125.47</t>
+          <t>1987.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>525.84</t>
+          <t>1984.24</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>554.52</t>
+          <t>1984.35</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>715.09</t>
+          <t>3364.36</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>121.57</t>
+          <t>3203.46</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1333.33</t>
+          <t>2789.80</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>121.29</t>
+          <t>2693.33</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>138.33</t>
+          <t>2108.73</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>141.02</t>
+          <t>2101.85</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1557.65</t>
+          <t>2078.85</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1559.81</t>
+          <t>2068.93</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1392.58</t>
+          <t>3287.16</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>123.48</t>
+          <t>3198.45</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1342.42</t>
+          <t>2772.57</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>123.49</t>
+          <t>2683.09</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>251.16</t>
+          <t>2099.04</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>256.03</t>
+          <t>2088.30</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1600.92</t>
+          <t>2055.29</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1593.78</t>
+          <t>2047.56</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>726.33</t>
+          <t>3368.31</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>122.50</t>
+          <t>3222.62</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1358.05</t>
+          <t>2784.15</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>123.42</t>
+          <t>2727.24</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>299.21</t>
+          <t>2112.11</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>310.83</t>
+          <t>2103.89</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1605.99</t>
+          <t>2056.12</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1599.70</t>
+          <t>2051.46</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>491.48</t>
+          <t>3350.60</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>352.90</t>
+          <t>3383.70</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>784.02</t>
+          <t>2802.77</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>122.58</t>
+          <t>2760.94</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>272.42</t>
+          <t>2120.46</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>299.11</t>
+          <t>2112.34</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1441.08</t>
+          <t>2084.32</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1453.76</t>
+          <t>2059.36</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>351.16</t>
+          <t>3352.04</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>349.42</t>
+          <t>3308.79</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>571.71</t>
+          <t>2835.19</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>121.59</t>
+          <t>2784.21</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>240.18</t>
+          <t>2128.51</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>273.63</t>
+          <t>2120.53</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1241.04</t>
+          <t>2115.59</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1255.64</t>
+          <t>2111.50</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>349.53</t>
+          <t>3353.63</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>347.59</t>
+          <t>3328.72</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>344.43</t>
+          <t>2866.41</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>120.56</t>
+          <t>2792.73</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>206.06</t>
+          <t>2136.97</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>242.22</t>
+          <t>2128.96</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1031.53</t>
+          <t>2122.82</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1042.58</t>
+          <t>2119.44</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>347.47</t>
+          <t>3368.53</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>345.63</t>
+          <t>3356.90</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>120.80</t>
+          <t>2886.03</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>119.31</t>
+          <t>2767.04</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>148.73</t>
+          <t>2152.58</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>186.99</t>
+          <t>2144.61</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>818.12</t>
+          <t>2129.99</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>820.69</t>
+          <t>2127.98</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>343.82</t>
+          <t>3474.54</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>342.68</t>
+          <t>3499.33</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>262.00</t>
+          <t>2964.34</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>117.21</t>
+          <t>2884.68</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>126.36</t>
+          <t>2247.11</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>126.61</t>
+          <t>2239.07</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>809.40</t>
+          <t>2228.81</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>800.12</t>
+          <t>2221.12</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>1354.16</t>
+          <t>4351.19</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>342.47</t>
+          <t>4235.97</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>1411.99</t>
+          <t>3723.09</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>343.55</t>
+          <t>3481.78</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>193.13</t>
+          <t>2743.40</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>184.54</t>
+          <t>2728.26</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1388.99</t>
+          <t>2878.06</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1388.24</t>
+          <t>2877.10</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1873.55</t>
+          <t>2882.40</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1764.03</t>
+          <t>2842.09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>262.50</t>
+          <t>369.47</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1504.18</t>
+          <t>2545.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1309.26</t>
+          <t>2054.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1305.36</t>
+          <t>2046.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1250.39</t>
+          <t>1968.63</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1247.38</t>
+          <t>1962.67</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2291.02</t>
+          <t>3328.47</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2188.73</t>
+          <t>3238.47</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1916.79</t>
+          <t>2785.60</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1775.86</t>
+          <t>2745.70</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1398.41</t>
+          <t>2158.06</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1393.63</t>
+          <t>2158.20</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1370.50</t>
+          <t>2093.45</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1369.90</t>
+          <t>2088.82</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2304.88</t>
+          <t>3265.14</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2199.49</t>
+          <t>3230.31</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1889.64</t>
+          <t>2784.14</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1792.63</t>
+          <t>2721.01</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1389.14</t>
+          <t>2134.13</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1384.57</t>
+          <t>2124.12</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1368.86</t>
+          <t>2085.22</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1368.87</t>
+          <t>2077.85</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2293.67</t>
+          <t>3297.42</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2205.67</t>
+          <t>3248.25</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1893.40</t>
+          <t>2789.82</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1808.55</t>
+          <t>2741.02</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1393.78</t>
+          <t>2150.65</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1389.45</t>
+          <t>2142.36</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1374.71</t>
+          <t>2100.50</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1372.26</t>
+          <t>2091.86</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2295.70</t>
+          <t>3305.02</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2207.15</t>
+          <t>3282.16</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1892.30</t>
+          <t>2807.32</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1815.64</t>
+          <t>2751.27</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1396.80</t>
+          <t>2140.87</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1392.95</t>
+          <t>2132.91</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1377.29</t>
+          <t>2047.28</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1374.71</t>
+          <t>2043.36</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2295.05</t>
+          <t>3316.88</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2208.49</t>
+          <t>3296.22</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1930.71</t>
+          <t>2821.01</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1822.22</t>
+          <t>2744.24</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1399.42</t>
+          <t>2142.89</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1395.76</t>
+          <t>2135.22</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1371.05</t>
+          <t>2061.64</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1367.76</t>
+          <t>2049.79</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2296.70</t>
+          <t>3333.53</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2212.37</t>
+          <t>3318.39</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1938.08</t>
+          <t>2838.43</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1828.90</t>
+          <t>2759.63</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1403.22</t>
+          <t>2150.18</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1399.50</t>
+          <t>2142.60</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1370.00</t>
+          <t>2089.32</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1370.17</t>
+          <t>2079.03</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2307.27</t>
+          <t>3354.14</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2226.73</t>
+          <t>3341.03</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1952.87</t>
+          <t>2860.88</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1844.51</t>
+          <t>2777.00</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1412.94</t>
+          <t>2165.74</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1409.13</t>
+          <t>2158.18</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1382.83</t>
+          <t>2104.92</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1379.43</t>
+          <t>2096.62</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2421.78</t>
+          <t>3466.34</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2338.95</t>
+          <t>3453.10</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2018.87</t>
+          <t>2954.03</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1955.92</t>
+          <t>2884.70</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1444.01</t>
+          <t>2263.02</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1457.89</t>
+          <t>2255.21</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1487.83</t>
+          <t>2207.05</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1485.08</t>
+          <t>2198.84</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3150.29</t>
+          <t>4271.30</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3007.68</t>
+          <t>4164.97</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2681.79</t>
+          <t>3746.41</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2487.16</t>
+          <t>3494.76</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1943.93</t>
+          <t>2755.63</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1935.72</t>
+          <t>2729.32</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2065.77</t>
+          <t>2852.52</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2072.03</t>
+          <t>2842.53</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1931.78</t>
+          <t>2772.46</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2000.36</t>
+          <t>2851.87</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>199.07</t>
+          <t>435.40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1725.32</t>
+          <t>2565.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1411.89</t>
+          <t>2023.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1405.63</t>
+          <t>2017.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1327.25</t>
+          <t>1924.84</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1369.39</t>
+          <t>1912.65</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2215.66</t>
+          <t>3104.21</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2372.41</t>
+          <t>3211.64</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2080.34</t>
+          <t>2717.10</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1893.81</t>
+          <t>2779.09</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1484.83</t>
+          <t>2130.47</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1479.23</t>
+          <t>2123.24</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1473.47</t>
+          <t>2017.23</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1484.63</t>
+          <t>1992.36</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2265.65</t>
+          <t>3131.59</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2345.37</t>
+          <t>3212.30</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1859.28</t>
+          <t>2738.14</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1877.10</t>
+          <t>2751.86</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1467.30</t>
+          <t>2096.84</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1461.93</t>
+          <t>2089.56</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1465.11</t>
+          <t>1965.79</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1462.79</t>
+          <t>1958.91</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2300.14</t>
+          <t>3109.50</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2265.10</t>
+          <t>3219.45</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1885.24</t>
+          <t>2748.60</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1892.68</t>
+          <t>2772.63</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1517.65</t>
+          <t>2101.20</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1512.21</t>
+          <t>2094.01</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1470.47</t>
+          <t>2003.68</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1466.77</t>
+          <t>1987.85</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2297.43</t>
+          <t>3135.25</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2228.93</t>
+          <t>3250.37</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1888.24</t>
+          <t>2758.14</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1889.85</t>
+          <t>2781.75</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1520.42</t>
+          <t>2119.25</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1518.20</t>
+          <t>2111.08</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1477.53</t>
+          <t>1967.53</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1473.58</t>
+          <t>1959.78</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2300.83</t>
+          <t>3158.55</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2224.34</t>
+          <t>3262.98</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1924.92</t>
+          <t>2772.14</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1884.17</t>
+          <t>2798.16</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1522.80</t>
+          <t>2151.38</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1520.76</t>
+          <t>2143.23</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1479.73</t>
+          <t>1985.35</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1479.78</t>
+          <t>1976.97</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2306.13</t>
+          <t>3180.47</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2221.90</t>
+          <t>3275.49</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1929.95</t>
+          <t>2797.96</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1890.10</t>
+          <t>2819.93</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1525.77</t>
+          <t>2167.25</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1523.78</t>
+          <t>2159.67</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1479.76</t>
+          <t>2002.50</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1480.37</t>
+          <t>1994.16</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2314.96</t>
+          <t>3238.46</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2407.26</t>
+          <t>3287.07</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1926.10</t>
+          <t>2810.99</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1979.82</t>
+          <t>2831.43</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1535.14</t>
+          <t>2180.47</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1533.73</t>
+          <t>2172.93</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1482.19</t>
+          <t>2027.09</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1482.58</t>
+          <t>2018.79</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2414.54</t>
+          <t>3354.45</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2316.23</t>
+          <t>3399.19</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1976.42</t>
+          <t>2905.35</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2072.74</t>
+          <t>2941.35</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1622.63</t>
+          <t>2284.94</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1615.17</t>
+          <t>2276.95</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1542.09</t>
+          <t>2130.24</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1538.37</t>
+          <t>2117.37</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3000.03</t>
+          <t>3981.77</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>2990.88</t>
+          <t>4011.11</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2536.98</t>
+          <t>3582.73</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2481.65</t>
+          <t>3552.15</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1906.90</t>
+          <t>2735.38</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1891.79</t>
+          <t>2716.84</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1927.24</t>
+          <t>2684.31</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1915.67</t>
+          <t>2681.15</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2298.54</t>
+          <t>2744.88</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2426.63</t>
+          <t>2851.98</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>792.65</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2072.35</t>
+          <t>2563.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1672.81</t>
+          <t>2025.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1666.94</t>
+          <t>2019.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1553.54</t>
+          <t>1920.29</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1567.69</t>
+          <t>1921.05</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2676.14</t>
+          <t>3093.93</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2812.62</t>
+          <t>3215.06</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2233.56</t>
+          <t>2713.33</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2307.83</t>
+          <t>2755.15</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1779.36</t>
+          <t>2131.02</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1771.98</t>
+          <t>2123.16</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1642.62</t>
+          <t>2006.43</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1641.01</t>
+          <t>1993.47</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2663.27</t>
+          <t>3120.37</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2786.20</t>
+          <t>3188.02</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2169.06</t>
+          <t>2690.27</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2290.84</t>
+          <t>2744.19</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1754.92</t>
+          <t>2093.82</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1747.76</t>
+          <t>2086.08</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1625.48</t>
+          <t>1970.86</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1620.11</t>
+          <t>1963.44</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2659.76</t>
+          <t>3101.68</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2789.78</t>
+          <t>3202.54</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2173.57</t>
+          <t>2718.13</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2300.07</t>
+          <t>2776.22</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1764.55</t>
+          <t>2097.00</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1757.59</t>
+          <t>2089.34</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1629.91</t>
+          <t>1954.55</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1623.72</t>
+          <t>1946.61</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2667.91</t>
+          <t>3121.03</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2787.18</t>
+          <t>3212.24</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2183.42</t>
+          <t>2750.33</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2309.47</t>
+          <t>2799.61</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1767.98</t>
+          <t>2105.01</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1761.05</t>
+          <t>2097.43</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1635.51</t>
+          <t>1968.36</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1628.88</t>
+          <t>1960.52</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2651.91</t>
+          <t>3162.41</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2765.69</t>
+          <t>3236.86</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2206.99</t>
+          <t>2779.30</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2294.53</t>
+          <t>2818.49</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1750.97</t>
+          <t>2113.53</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1743.93</t>
+          <t>2106.01</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1622.88</t>
+          <t>1985.00</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1616.02</t>
+          <t>1977.16</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2659.35</t>
+          <t>3180.75</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2771.61</t>
+          <t>3260.03</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2218.19</t>
+          <t>2806.24</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2302.59</t>
+          <t>2836.32</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1755.02</t>
+          <t>2124.04</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1747.90</t>
+          <t>2116.21</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1627.85</t>
+          <t>2001.04</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1620.92</t>
+          <t>1993.16</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2673.72</t>
+          <t>3204.22</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2784.79</t>
+          <t>3289.75</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2235.51</t>
+          <t>2839.80</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2317.54</t>
+          <t>2860.81</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1766.42</t>
+          <t>2147.52</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1759.30</t>
+          <t>2138.93</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1639.69</t>
+          <t>2025.65</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1632.73</t>
+          <t>2018.01</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2781.07</t>
+          <t>3323.45</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2893.02</t>
+          <t>3401.44</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2304.13</t>
+          <t>2942.61</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2421.26</t>
+          <t>2972.83</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1857.30</t>
+          <t>2253.29</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1850.10</t>
+          <t>2245.51</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1728.39</t>
+          <t>2135.51</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1721.42</t>
+          <t>2127.84</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3443.77</t>
+          <t>3978.39</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3532.96</t>
+          <t>4020.53</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2883.91</t>
+          <t>3586.84</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2909.67</t>
+          <t>3581.34</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2321.20</t>
+          <t>2737.57</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2301.70</t>
+          <t>2716.86</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2245.00</t>
+          <t>2724.92</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2238.71</t>
+          <t>2724.92</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1759.59</t>
+          <t>2674.94</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1918.47</t>
+          <t>2765.48</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>282.27</t>
+          <t>831.49</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1612.96</t>
+          <t>2452.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1346.55</t>
+          <t>1993.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1340.98</t>
+          <t>1987.14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1226.93</t>
+          <t>1884.91</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1258.49</t>
+          <t>1879.66</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2081.76</t>
+          <t>2959.69</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2373.21</t>
+          <t>3092.53</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1922.57</t>
+          <t>2607.25</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1879.81</t>
+          <t>2616.79</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1446.87</t>
+          <t>2077.51</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1439.70</t>
+          <t>2069.52</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1341.09</t>
+          <t>1952.24</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1351.42</t>
+          <t>1945.01</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2173.24</t>
+          <t>2978.51</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2348.21</t>
+          <t>3060.94</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1752.16</t>
+          <t>2566.92</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1856.94</t>
+          <t>2587.87</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1426.16</t>
+          <t>2045.19</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1420.85</t>
+          <t>2037.31</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1337.33</t>
+          <t>1921.31</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1341.03</t>
+          <t>1913.53</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2054.20</t>
+          <t>2949.97</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2353.68</t>
+          <t>3071.99</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1723.71</t>
+          <t>2584.45</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1859.58</t>
+          <t>2608.79</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1429.20</t>
+          <t>2051.62</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1423.90</t>
+          <t>2043.79</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1342.65</t>
+          <t>1928.05</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1343.95</t>
+          <t>1920.20</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2063.18</t>
+          <t>2967.74</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2191.85</t>
+          <t>3052.83</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1729.15</t>
+          <t>2605.35</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1863.07</t>
+          <t>2626.98</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1434.75</t>
+          <t>2062.13</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1429.34</t>
+          <t>2054.33</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1348.06</t>
+          <t>1938.85</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1348.65</t>
+          <t>1931.03</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2071.68</t>
+          <t>2984.02</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2199.71</t>
+          <t>3068.32</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1733.57</t>
+          <t>2624.29</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1869.42</t>
+          <t>2648.17</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1440.03</t>
+          <t>2072.17</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1434.58</t>
+          <t>2064.40</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1347.12</t>
+          <t>1949.18</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1350.00</t>
+          <t>1941.39</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2080.11</t>
+          <t>2999.59</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2207.62</t>
+          <t>3083.13</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1740.37</t>
+          <t>2642.25</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1872.10</t>
+          <t>2664.15</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1445.76</t>
+          <t>2082.27</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1440.32</t>
+          <t>2074.53</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1347.45</t>
+          <t>1959.55</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1348.57</t>
+          <t>1951.79</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2094.61</t>
+          <t>3021.28</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2221.88</t>
+          <t>3104.30</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1752.14</t>
+          <t>2665.84</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1880.18</t>
+          <t>2686.53</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1467.89</t>
+          <t>2099.49</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1462.41</t>
+          <t>2091.80</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1369.23</t>
+          <t>1976.90</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1363.07</t>
+          <t>1969.19</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2188.16</t>
+          <t>3127.48</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2317.76</t>
+          <t>3209.43</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1820.26</t>
+          <t>2760.74</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1963.50</t>
+          <t>2790.49</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1542.59</t>
+          <t>2193.61</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1537.31</t>
+          <t>2185.91</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1443.86</t>
+          <t>2070.20</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1438.52</t>
+          <t>2062.48</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2694.47</t>
+          <t>3682.02</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2857.45</t>
+          <t>3744.14</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2160.96</t>
+          <t>3231.36</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2277.47</t>
+          <t>3228.56</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1954.00</t>
+          <t>2577.32</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1937.80</t>
+          <t>2559.73</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1809.94</t>
+          <t>2585.23</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1796.45</t>
+          <t>2583.12</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1944.92</t>
+          <t>2602.80</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2064.15</t>
+          <t>2690.94</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>642.00</t>
+          <t>1160.76</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1742.91</t>
+          <t>2401.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1411.11</t>
+          <t>1935.90</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1405.79</t>
+          <t>1929.90</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1297.58</t>
+          <t>1832.03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1329.23</t>
+          <t>1829.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2128.15</t>
+          <t>2843.88</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2365.48</t>
+          <t>3001.96</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1968.07</t>
+          <t>2569.18</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1899.05</t>
+          <t>2564.66</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1485.04</t>
+          <t>2015.07</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1478.20</t>
+          <t>2007.47</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1366.56</t>
+          <t>1895.21</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1370.69</t>
+          <t>1890.43</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2187.27</t>
+          <t>2878.72</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2322.63</t>
+          <t>2954.06</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1782.19</t>
+          <t>2508.37</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1863.37</t>
+          <t>2522.30</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1457.06</t>
+          <t>1968.87</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1452.50</t>
+          <t>1961.43</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1344.69</t>
+          <t>1853.15</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1342.38</t>
+          <t>1845.88</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2103.14</t>
+          <t>2825.15</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2323.42</t>
+          <t>2963.74</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1745.80</t>
+          <t>2521.40</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1861.85</t>
+          <t>2541.60</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1458.20</t>
+          <t>1974.61</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1456.19</t>
+          <t>1967.23</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1349.21</t>
+          <t>1860.07</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1345.25</t>
+          <t>1852.66</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2108.99</t>
+          <t>2842.71</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2231.37</t>
+          <t>2915.99</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1747.28</t>
+          <t>2541.73</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1863.57</t>
+          <t>2558.97</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1464.04</t>
+          <t>1984.44</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1459.42</t>
+          <t>1977.08</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1356.86</t>
+          <t>1870.85</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1352.46</t>
+          <t>1863.45</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2117.72</t>
+          <t>2858.72</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2239.75</t>
+          <t>2930.59</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1757.11</t>
+          <t>2558.43</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1865.87</t>
+          <t>2574.85</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1467.86</t>
+          <t>1993.85</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1465.93</t>
+          <t>1986.53</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1364.32</t>
+          <t>1881.09</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1359.78</t>
+          <t>1873.72</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2126.44</t>
+          <t>2873.96</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2248.05</t>
+          <t>2944.55</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1760.60</t>
+          <t>2576.11</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1868.75</t>
+          <t>2590.01</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1473.73</t>
+          <t>2003.34</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1468.90</t>
+          <t>1996.04</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1371.61</t>
+          <t>1891.30</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1367.07</t>
+          <t>1883.96</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2137.82</t>
+          <t>2895.06</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2262.52</t>
+          <t>2964.64</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1772.55</t>
+          <t>2601.52</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1876.73</t>
+          <t>2611.61</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1478.39</t>
+          <t>2019.69</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1474.77</t>
+          <t>2012.45</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1383.81</t>
+          <t>1908.30</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1379.35</t>
+          <t>1901.01</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2209.65</t>
+          <t>2992.41</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2341.89</t>
+          <t>3064.54</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1846.29</t>
+          <t>2690.15</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1954.55</t>
+          <t>2713.09</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1556.38</t>
+          <t>2112.16</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1550.70</t>
+          <t>2104.91</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1435.28</t>
+          <t>1998.26</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1433.30</t>
+          <t>1990.98</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2705.50</t>
+          <t>3540.33</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2805.70</t>
+          <t>3592.68</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2197.72</t>
+          <t>3124.33</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2248.60</t>
+          <t>3118.26</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1934.44</t>
+          <t>2490.72</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1919.60</t>
+          <t>2474.14</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1820.96</t>
+          <t>2506.84</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1807.91</t>
+          <t>2504.76</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1978.60</t>
+          <t>2555.58</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1898.40</t>
+          <t>2639.97</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>601.75</t>
+          <t>1313.42</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1677.99</t>
+          <t>2304.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1384.56</t>
+          <t>1811.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1379.99</t>
+          <t>1806.49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1355.17</t>
+          <t>1735.31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1374.81</t>
+          <t>1743.28</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2154.33</t>
+          <t>2628.20</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2146.20</t>
+          <t>2932.46</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1986.27</t>
+          <t>2529.22</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1778.32</t>
+          <t>2485.57</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1453.78</t>
+          <t>1899.17</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1448.11</t>
+          <t>1891.01</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1413.44</t>
+          <t>1800.98</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1412.45</t>
+          <t>1804.41</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2164.52</t>
+          <t>2890.04</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2111.28</t>
+          <t>2918.54</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1892.55</t>
+          <t>2486.04</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1747.60</t>
+          <t>2483.51</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1417.55</t>
+          <t>1876.19</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1412.03</t>
+          <t>1867.65</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1380.06</t>
+          <t>1774.12</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1375.01</t>
+          <t>1772.85</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2109.76</t>
+          <t>2628.07</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2111.36</t>
+          <t>2955.93</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1866.91</t>
+          <t>2511.37</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1746.93</t>
+          <t>2524.40</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1417.73</t>
+          <t>1883.62</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1412.22</t>
+          <t>1875.59</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1380.24</t>
+          <t>1783.06</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1374.48</t>
+          <t>1778.73</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2115.65</t>
+          <t>2646.24</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2102.97</t>
+          <t>2688.88</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1867.20</t>
+          <t>2540.62</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1751.37</t>
+          <t>2550.08</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1422.58</t>
+          <t>1893.97</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1417.32</t>
+          <t>1885.63</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1385.44</t>
+          <t>1795.23</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1379.62</t>
+          <t>1787.66</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2121.93</t>
+          <t>2658.85</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2106.16</t>
+          <t>2706.38</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1894.20</t>
+          <t>2564.27</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1755.82</t>
+          <t>2572.81</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1424.76</t>
+          <t>1911.78</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1422.64</t>
+          <t>1902.54</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1390.92</t>
+          <t>1807.01</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1385.14</t>
+          <t>1799.47</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2127.53</t>
+          <t>2664.46</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2110.05</t>
+          <t>2720.72</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1902.99</t>
+          <t>2589.60</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1762.08</t>
+          <t>2606.95</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1427.69</t>
+          <t>1932.36</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1426.63</t>
+          <t>1923.30</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1396.90</t>
+          <t>1819.72</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1391.20</t>
+          <t>1812.22</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2137.23</t>
+          <t>2684.11</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2120.05</t>
+          <t>2741.58</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1914.39</t>
+          <t>2618.95</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1774.05</t>
+          <t>2644.91</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1435.17</t>
+          <t>1955.49</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1434.02</t>
+          <t>1947.24</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1409.33</t>
+          <t>1838.45</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1403.89</t>
+          <t>1831.39</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2216.61</t>
+          <t>2792.71</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2191.68</t>
+          <t>2851.42</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1972.50</t>
+          <t>2721.85</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1840.52</t>
+          <t>2731.78</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1491.39</t>
+          <t>2054.09</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1490.59</t>
+          <t>2045.80</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1482.83</t>
+          <t>1937.37</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1482.62</t>
+          <t>1929.05</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2631.71</t>
+          <t>3434.43</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2556.34</t>
+          <t>3442.95</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2295.42</t>
+          <t>3024.99</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2108.27</t>
+          <t>3019.59</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1741.94</t>
+          <t>2451.83</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1728.01</t>
+          <t>2434.56</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1868.40</t>
+          <t>2487.05</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1858.52</t>
+          <t>2486.24</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2084.91</t>
+          <t>2761.18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2156.69</t>
+          <t>2841.11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>768.33</t>
+          <t>1217.99</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1901.43</t>
+          <t>2523.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1529.12</t>
+          <t>2038.50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1524.83</t>
+          <t>2031.81</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1454.02</t>
+          <t>1938.71</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1492.51</t>
+          <t>1943.48</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2234.29</t>
+          <t>3091.30</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2312.32</t>
+          <t>3151.39</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2101.35</t>
+          <t>2692.43</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1957.59</t>
+          <t>2672.54</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1540.93</t>
+          <t>2111.69</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1535.52</t>
+          <t>2103.17</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1502.93</t>
+          <t>1983.19</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1507.77</t>
+          <t>1979.32</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2211.42</t>
+          <t>3050.38</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2264.57</t>
+          <t>3121.18</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1891.91</t>
+          <t>2635.57</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1918.08</t>
+          <t>2648.23</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1502.23</t>
+          <t>2080.14</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1496.96</t>
+          <t>2071.70</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1456.52</t>
+          <t>1950.33</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1469.80</t>
+          <t>1942.76</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2186.14</t>
+          <t>3087.41</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2267.83</t>
+          <t>3138.07</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1843.13</t>
+          <t>2657.24</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1924.94</t>
+          <t>2673.84</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1503.88</t>
+          <t>2088.23</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1498.63</t>
+          <t>2079.85</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1454.92</t>
+          <t>1958.46</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1451.17</t>
+          <t>1950.20</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2192.32</t>
+          <t>3109.82</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2191.37</t>
+          <t>3201.74</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1852.49</t>
+          <t>2679.83</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1936.78</t>
+          <t>2696.61</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1510.87</t>
+          <t>2101.10</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1505.68</t>
+          <t>2092.74</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1459.32</t>
+          <t>1971.45</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1454.94</t>
+          <t>1963.12</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2198.55</t>
+          <t>3130.23</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2200.22</t>
+          <t>3221.30</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1896.55</t>
+          <t>2702.67</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1948.09</t>
+          <t>2717.10</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1518.08</t>
+          <t>2113.30</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1512.92</t>
+          <t>2104.98</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1464.11</t>
+          <t>1983.81</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1459.56</t>
+          <t>1975.48</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2205.19</t>
+          <t>3149.61</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2208.92</t>
+          <t>3240.02</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1909.60</t>
+          <t>2724.10</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1959.15</t>
+          <t>2736.35</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1525.63</t>
+          <t>2125.43</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1520.49</t>
+          <t>2117.14</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1469.67</t>
+          <t>1996.11</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1465.11</t>
+          <t>1987.81</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2216.76</t>
+          <t>3176.24</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2223.65</t>
+          <t>3266.57</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1928.73</t>
+          <t>2736.59</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1919.87</t>
+          <t>2747.14</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1539.98</t>
+          <t>2142.08</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1534.85</t>
+          <t>2134.50</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1480.28</t>
+          <t>2027.68</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1476.83</t>
+          <t>2020.05</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2282.23</t>
+          <t>3283.53</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2301.22</t>
+          <t>3376.85</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1977.60</t>
+          <t>2832.56</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1999.05</t>
+          <t>2854.34</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1616.24</t>
+          <t>2239.11</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1611.08</t>
+          <t>2231.50</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1554.66</t>
+          <t>2124.01</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1549.49</t>
+          <t>2116.34</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2692.61</t>
+          <t>3927.93</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2574.65</t>
+          <t>3976.05</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2318.02</t>
+          <t>3461.81</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2198.51</t>
+          <t>3415.05</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1797.22</t>
+          <t>2632.17</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1785.12</t>
+          <t>2614.16</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1903.35</t>
+          <t>2642.30</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1901.61</t>
+          <t>2639.34</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2653.66</t>
+          <t>2864.18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2602.15</t>
+          <t>2914.81</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>925.15</t>
+          <t>1310.77</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2277.65</t>
+          <t>2584.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1831.55</t>
+          <t>2059.01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1828.91</t>
+          <t>2052.74</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1790.93</t>
+          <t>2001.43</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1758.98</t>
+          <t>2027.30</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3025.42</t>
+          <t>3239.98</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2944.92</t>
+          <t>3230.52</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2499.97</t>
+          <t>2806.09</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2463.77</t>
+          <t>2742.73</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1920.96</t>
+          <t>2177.23</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1907.42</t>
+          <t>2169.34</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1864.33</t>
+          <t>2053.82</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1856.32</t>
+          <t>2059.64</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2948.88</t>
+          <t>3230.63</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2961.40</t>
+          <t>3193.67</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2458.86</t>
+          <t>2751.64</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2452.15</t>
+          <t>2723.59</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1921.29</t>
+          <t>2135.77</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1912.00</t>
+          <t>2127.79</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1842.85</t>
+          <t>2032.76</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1835.69</t>
+          <t>2014.77</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3010.92</t>
+          <t>3221.04</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2976.13</t>
+          <t>3205.59</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2470.96</t>
+          <t>2774.65</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2473.81</t>
+          <t>2750.40</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1928.48</t>
+          <t>2110.66</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1925.51</t>
+          <t>2102.98</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1854.31</t>
+          <t>2031.01</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1851.19</t>
+          <t>2031.78</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3026.67</t>
+          <t>3241.48</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2995.87</t>
+          <t>3265.50</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2492.73</t>
+          <t>2801.55</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2496.17</t>
+          <t>2773.65</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1930.78</t>
+          <t>2120.40</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1929.19</t>
+          <t>2112.16</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1876.96</t>
+          <t>2045.68</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1872.39</t>
+          <t>2032.34</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3043.56</t>
+          <t>3260.19</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2989.80</t>
+          <t>3283.89</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2552.97</t>
+          <t>2825.90</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2513.99</t>
+          <t>2794.49</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1931.26</t>
+          <t>2137.72</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1930.74</t>
+          <t>2129.52</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1902.72</t>
+          <t>2065.85</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1898.46</t>
+          <t>2056.64</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3056.86</t>
+          <t>3275.36</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2995.59</t>
+          <t>3301.53</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2578.46</t>
+          <t>2851.72</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2529.28</t>
+          <t>2813.97</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1930.92</t>
+          <t>2154.44</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1930.70</t>
+          <t>2146.27</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1917.88</t>
+          <t>2087.98</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1908.97</t>
+          <t>2076.08</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3070.18</t>
+          <t>3294.78</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3002.83</t>
+          <t>3325.80</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2604.17</t>
+          <t>2885.86</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2556.98</t>
+          <t>2839.49</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1942.06</t>
+          <t>2178.35</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1937.91</t>
+          <t>2170.22</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1936.33</t>
+          <t>2103.70</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1931.51</t>
+          <t>2098.49</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3175.38</t>
+          <t>3398.32</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3102.79</t>
+          <t>3435.25</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2683.16</t>
+          <t>3003.08</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2661.97</t>
+          <t>2946.53</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2029.16</t>
+          <t>2289.71</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2028.52</t>
+          <t>2281.84</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2042.25</t>
+          <t>2202.01</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2037.84</t>
+          <t>2195.10</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3916.83</t>
+          <t>4141.83</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3765.60</t>
+          <t>4014.72</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3437.84</t>
+          <t>3702.13</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3325.83</t>
+          <t>3511.93</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2529.73</t>
+          <t>2714.30</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2525.47</t>
+          <t>2695.78</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2613.36</t>
+          <t>2877.07</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2614.56</t>
+          <t>2876.04</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2832.78</t>
+          <t>2891.02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2446.37</t>
+          <t>2921.76</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>763.59</t>
+          <t>924.20</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2081.71</t>
+          <t>2569.67</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1691.18</t>
+          <t>2088.21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1685.65</t>
+          <t>2081.23</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1915.53</t>
+          <t>2066.01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1881.37</t>
+          <t>2054.78</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3338.67</t>
+          <t>3337.53</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2683.89</t>
+          <t>3246.89</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2621.42</t>
+          <t>2850.64</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2219.30</t>
+          <t>2742.53</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1754.29</t>
+          <t>2195.39</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1747.06</t>
+          <t>2187.04</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1982.75</t>
+          <t>2122.71</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1977.59</t>
+          <t>2123.92</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3185.87</t>
+          <t>3238.09</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2627.21</t>
+          <t>3217.10</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2589.51</t>
+          <t>2809.13</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2182.56</t>
+          <t>2720.08</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1717.74</t>
+          <t>2119.39</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1710.71</t>
+          <t>2110.97</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2081.14</t>
+          <t>2077.07</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2074.38</t>
+          <t>2072.22</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3297.16</t>
+          <t>3333.80</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2898.60</t>
+          <t>3231.28</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2623.66</t>
+          <t>2832.95</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2192.26</t>
+          <t>2722.11</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1715.07</t>
+          <t>2134.23</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1708.42</t>
+          <t>2122.95</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2051.12</t>
+          <t>2084.58</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2044.26</t>
+          <t>2076.73</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3302.72</t>
+          <t>3356.23</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2984.58</t>
+          <t>3259.25</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2641.43</t>
+          <t>2862.56</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2461.68</t>
+          <t>2739.82</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1914.98</t>
+          <t>2144.85</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1908.70</t>
+          <t>2136.87</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2061.39</t>
+          <t>2093.75</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2054.72</t>
+          <t>2089.61</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3313.80</t>
+          <t>3382.34</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2995.24</t>
+          <t>3279.67</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2703.57</t>
+          <t>2897.01</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2476.35</t>
+          <t>2749.91</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1924.44</t>
+          <t>2155.23</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1918.13</t>
+          <t>2147.67</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2070.97</t>
+          <t>2105.28</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2064.48</t>
+          <t>2097.62</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3328.27</t>
+          <t>3399.37</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3007.42</t>
+          <t>3302.70</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2727.00</t>
+          <t>2918.29</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2491.16</t>
+          <t>2772.39</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1935.07</t>
+          <t>2180.62</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1928.74</t>
+          <t>2173.11</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2080.51</t>
+          <t>2116.39</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2074.15</t>
+          <t>2108.86</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3341.62</t>
+          <t>3422.28</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3026.31</t>
+          <t>3324.28</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2750.85</t>
+          <t>2937.66</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2512.42</t>
+          <t>2805.45</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1952.79</t>
+          <t>2198.64</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1946.46</t>
+          <t>2191.18</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2095.95</t>
+          <t>2128.32</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2089.82</t>
+          <t>2126.59</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3448.94</t>
+          <t>3527.42</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3139.80</t>
+          <t>3434.40</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2833.10</t>
+          <t>2989.04</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2625.94</t>
+          <t>2916.98</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2056.99</t>
+          <t>2290.72</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2050.61</t>
+          <t>2283.21</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2176.34</t>
+          <t>2226.15</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2169.88</t>
+          <t>2214.17</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4161.65</t>
+          <t>4302.97</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3676.93</t>
+          <t>4165.08</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3615.20</t>
+          <t>3795.46</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2850.80</t>
+          <t>3523.52</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2226.48</t>
+          <t>2732.68</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2213.60</t>
+          <t>2713.23</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2712.29</t>
+          <t>2909.26</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2707.71</t>
+          <t>2904.05</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2567.83</t>
+          <t>2924.88</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2397.47</t>
+          <t>2843.28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>399.41</t>
+          <t>596.69</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2100.62</t>
+          <t>2515.93</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1723.61</t>
+          <t>2035.66</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1717.48</t>
+          <t>2029.38</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1842.81</t>
+          <t>2021.94</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1843.45</t>
+          <t>2020.59</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2744.78</t>
+          <t>3336.20</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2083.65</t>
+          <t>3189.87</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2440.79</t>
+          <t>2821.30</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1844.45</t>
+          <t>2671.76</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1789.33</t>
+          <t>2119.17</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1781.68</t>
+          <t>2110.25</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1884.44</t>
+          <t>2105.12</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1881.42</t>
+          <t>2100.18</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2706.98</t>
+          <t>3274.90</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2608.29</t>
+          <t>3183.39</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2392.13</t>
+          <t>2792.61</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1687.35</t>
+          <t>2660.31</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1757.24</t>
+          <t>2090.10</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1749.72</t>
+          <t>2082.20</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1854.42</t>
+          <t>2070.97</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1848.27</t>
+          <t>2065.39</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2648.77</t>
+          <t>3277.40</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2605.78</t>
+          <t>3207.94</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2386.73</t>
+          <t>2809.41</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2214.71</t>
+          <t>2677.78</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1758.21</t>
+          <t>2106.78</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1750.90</t>
+          <t>2098.22</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1857.01</t>
+          <t>2079.75</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1850.61</t>
+          <t>2072.31</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2649.81</t>
+          <t>3293.14</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2705.88</t>
+          <t>3326.95</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2171.71</t>
+          <t>2839.63</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2221.05</t>
+          <t>2693.07</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1725.30</t>
+          <t>2126.68</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1719.93</t>
+          <t>2117.06</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1863.72</t>
+          <t>2092.05</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1857.46</t>
+          <t>2085.69</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2656.31</t>
+          <t>3308.84</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2709.83</t>
+          <t>3212.54</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2209.11</t>
+          <t>2860.35</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2231.45</t>
+          <t>2707.36</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1730.60</t>
+          <t>2136.67</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1725.46</t>
+          <t>2128.97</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1870.50</t>
+          <t>2103.25</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1864.35</t>
+          <t>2095.65</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2664.70</t>
+          <t>3321.26</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2622.56</t>
+          <t>3227.94</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2220.68</t>
+          <t>2878.67</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2241.86</t>
+          <t>2727.23</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1736.49</t>
+          <t>2127.86</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1731.62</t>
+          <t>2120.03</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1863.20</t>
+          <t>2112.83</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1871.63</t>
+          <t>2105.28</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2681.33</t>
+          <t>3340.65</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2417.66</t>
+          <t>3248.79</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2230.61</t>
+          <t>2902.82</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2260.38</t>
+          <t>2752.45</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1750.93</t>
+          <t>2144.51</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1746.03</t>
+          <t>2136.85</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1711.81</t>
+          <t>2128.23</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1739.28</t>
+          <t>2122.82</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2782.20</t>
+          <t>3441.42</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2848.73</t>
+          <t>3357.18</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2285.24</t>
+          <t>2993.87</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2372.85</t>
+          <t>2869.70</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1850.33</t>
+          <t>2238.62</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1845.47</t>
+          <t>2230.84</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1802.30</t>
+          <t>2239.37</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1798.55</t>
+          <t>2227.97</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3502.96</t>
+          <t>4228.21</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>2858.28</t>
+          <t>3989.35</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2958.69</t>
+          <t>3660.40</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2457.47</t>
+          <t>3429.47</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1741.61</t>
+          <t>2717.88</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1723.20</t>
+          <t>2700.28</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2278.28</t>
+          <t>2903.17</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2273.08</t>
+          <t>2900.98</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>115.75</t>
+          <t>2555.58</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>115.48</t>
+          <t>2639.97</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>369.47</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>115.01</t>
+          <t>2304.54</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>125.63</t>
+          <t>1811.49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>125.47</t>
+          <t>1806.49</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>525.84</t>
+          <t>1735.31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>554.52</t>
+          <t>1743.28</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>715.09</t>
+          <t>2628.20</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>121.57</t>
+          <t>2932.46</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1333.33</t>
+          <t>2529.22</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>121.29</t>
+          <t>2485.57</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>138.33</t>
+          <t>1899.17</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>141.02</t>
+          <t>1891.01</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1341.09</t>
+          <t>1800.98</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1351.42</t>
+          <t>1804.41</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1392.58</t>
+          <t>2878.72</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>123.48</t>
+          <t>2918.54</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1342.42</t>
+          <t>2486.04</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>123.49</t>
+          <t>2483.51</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>251.16</t>
+          <t>1876.19</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>256.03</t>
+          <t>1867.65</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1337.33</t>
+          <t>1774.12</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1341.03</t>
+          <t>1772.85</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>726.33</t>
+          <t>2628.07</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>122.50</t>
+          <t>2955.93</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1358.05</t>
+          <t>2511.37</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>123.42</t>
+          <t>2524.40</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>299.21</t>
+          <t>1883.62</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>310.83</t>
+          <t>1875.59</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1342.65</t>
+          <t>1783.06</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1343.95</t>
+          <t>1778.73</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>491.48</t>
+          <t>2646.24</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>352.90</t>
+          <t>2688.88</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>784.02</t>
+          <t>2540.62</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>122.58</t>
+          <t>2550.08</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>272.42</t>
+          <t>1893.97</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>299.11</t>
+          <t>1885.63</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1348.06</t>
+          <t>1795.23</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1348.65</t>
+          <t>1787.66</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>351.16</t>
+          <t>2658.85</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>349.42</t>
+          <t>2706.38</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>571.71</t>
+          <t>2558.43</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>121.59</t>
+          <t>2572.81</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>240.18</t>
+          <t>1911.78</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>273.63</t>
+          <t>1902.54</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1241.04</t>
+          <t>1807.01</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1255.64</t>
+          <t>1799.47</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>349.53</t>
+          <t>2664.46</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>347.59</t>
+          <t>2720.72</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>344.43</t>
+          <t>2576.11</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>120.56</t>
+          <t>2590.01</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>206.06</t>
+          <t>1932.36</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>242.22</t>
+          <t>1923.30</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1031.53</t>
+          <t>1819.72</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1042.58</t>
+          <t>1812.22</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>347.47</t>
+          <t>2684.11</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>345.63</t>
+          <t>2741.58</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>120.80</t>
+          <t>2601.52</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>119.31</t>
+          <t>2611.61</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>148.73</t>
+          <t>1955.49</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>186.99</t>
+          <t>1947.24</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>818.12</t>
+          <t>1838.45</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>820.69</t>
+          <t>1831.39</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>343.82</t>
+          <t>2792.71</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>342.68</t>
+          <t>2851.42</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>262.00</t>
+          <t>2690.15</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>117.21</t>
+          <t>2713.09</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>126.36</t>
+          <t>2054.09</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>126.61</t>
+          <t>2045.80</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>809.40</t>
+          <t>1937.37</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>800.12</t>
+          <t>1929.05</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>1354.16</t>
+          <t>3434.43</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>342.47</t>
+          <t>3442.95</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>1411.99</t>
+          <t>3024.99</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>343.55</t>
+          <t>3019.59</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>193.13</t>
+          <t>2451.83</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>184.54</t>
+          <t>2434.56</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1388.99</t>
+          <t>2487.05</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1388.24</t>
+          <t>2486.24</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2832.78</t>
+          <t>2924.88</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2602.15</t>
+          <t>2921.76</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>925.15</t>
+          <t>1313.42</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2277.65</t>
+          <t>2584.59</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1831.55</t>
+          <t>2088.21</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1828.91</t>
+          <t>2081.23</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1915.53</t>
+          <t>2066.01</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1881.37</t>
+          <t>2054.78</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3338.67</t>
+          <t>3410.67</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2944.92</t>
+          <t>3246.89</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2621.42</t>
+          <t>2850.64</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2463.77</t>
+          <t>2779.09</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1920.96</t>
+          <t>2195.39</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1907.42</t>
+          <t>2187.04</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1982.75</t>
+          <t>2122.71</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1977.59</t>
+          <t>2123.92</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3185.87</t>
+          <t>3287.16</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2961.40</t>
+          <t>3230.31</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2589.51</t>
+          <t>2809.13</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2452.15</t>
+          <t>2751.86</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1921.29</t>
+          <t>2135.77</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1912.00</t>
+          <t>2127.79</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2081.14</t>
+          <t>2085.22</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2074.38</t>
+          <t>2094.61</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3297.16</t>
+          <t>3388.08</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2976.13</t>
+          <t>3248.25</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2623.66</t>
+          <t>2832.95</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2473.81</t>
+          <t>2776.22</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1928.48</t>
+          <t>2150.65</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1925.51</t>
+          <t>2142.36</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2051.12</t>
+          <t>2100.50</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2044.26</t>
+          <t>2091.86</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3302.72</t>
+          <t>3391.89</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2995.87</t>
+          <t>3383.70</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2641.43</t>
+          <t>2862.56</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2496.17</t>
+          <t>2799.61</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1930.78</t>
+          <t>2144.85</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1929.19</t>
+          <t>2136.87</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2061.39</t>
+          <t>2093.75</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2054.72</t>
+          <t>2089.61</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3313.80</t>
+          <t>3400.71</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2995.24</t>
+          <t>3308.79</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2703.57</t>
+          <t>2897.01</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2513.99</t>
+          <t>2818.49</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1931.26</t>
+          <t>2155.23</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1930.74</t>
+          <t>2147.67</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2070.97</t>
+          <t>2115.59</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2064.48</t>
+          <t>2111.50</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3328.27</t>
+          <t>3405.27</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3007.42</t>
+          <t>3328.72</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2727.00</t>
+          <t>2918.29</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2529.28</t>
+          <t>2836.32</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1935.07</t>
+          <t>2180.62</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1930.70</t>
+          <t>2173.11</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2080.51</t>
+          <t>2122.82</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2074.15</t>
+          <t>2119.44</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3341.62</t>
+          <t>3422.28</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3026.31</t>
+          <t>3356.90</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2750.85</t>
+          <t>2937.66</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2556.98</t>
+          <t>2860.81</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1952.79</t>
+          <t>2198.64</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1946.46</t>
+          <t>2191.18</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2095.95</t>
+          <t>2129.99</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2089.82</t>
+          <t>2127.98</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3448.94</t>
+          <t>3527.42</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3139.80</t>
+          <t>3499.33</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2833.10</t>
+          <t>3003.08</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2661.97</t>
+          <t>2972.83</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2056.99</t>
+          <t>2290.72</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2050.61</t>
+          <t>2283.21</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2176.34</t>
+          <t>2239.37</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2169.88</t>
+          <t>2227.97</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4161.65</t>
+          <t>4351.19</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3765.60</t>
+          <t>4235.97</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3615.20</t>
+          <t>3795.46</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3325.83</t>
+          <t>3581.34</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2529.73</t>
+          <t>2755.63</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2525.47</t>
+          <t>2729.32</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2712.29</t>
+          <t>2909.26</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2707.71</t>
+          <t>2904.05</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_TucsonTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_TucsonTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2881.76</t>
+          <t>2942.65</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2758.13</t>
+          <t>2430.90</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>501.58</t>
+          <t>694.46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2434.32</t>
+          <t>2067.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1980.01</t>
+          <t>1636.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1974.04</t>
+          <t>1630.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1978.33</t>
+          <t>2045.43</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2051.68</t>
+          <t>2034.01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3410.67</t>
+          <t>3424.38</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3150.22</t>
+          <t>2796.03</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2772.92</t>
+          <t>2828.23</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2658.47</t>
+          <t>2273.90</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2103.06</t>
+          <t>1852.62</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2097.64</t>
+          <t>1844.85</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2115.00</t>
+          <t>2112.37</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2117.78</t>
+          <t>2121.03</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3255.23</t>
+          <t>3298.78</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3126.10</t>
+          <t>2763.81</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2756.63</t>
+          <t>2759.70</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2646.20</t>
+          <t>2255.72</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2081.81</t>
+          <t>1709.40</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2084.89</t>
+          <t>1702.42</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2069.68</t>
+          <t>2076.44</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2094.61</t>
+          <t>2071.96</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3388.08</t>
+          <t>3416.78</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3136.24</t>
+          <t>2768.26</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2805.21</t>
+          <t>2787.61</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2667.98</t>
+          <t>2268.32</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2088.20</t>
+          <t>1714.27</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2082.24</t>
+          <t>1707.50</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2091.08</t>
+          <t>2090.91</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2077.53</t>
+          <t>2080.90</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3391.89</t>
+          <t>3424.74</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3166.16</t>
+          <t>2788.00</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2742.55</t>
+          <t>2807.50</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2682.19</t>
+          <t>2341.46</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2096.95</t>
+          <t>1845.73</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>2090.60</t>
+          <t>1834.64</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>2052.00</t>
+          <t>2093.43</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2048.20</t>
+          <t>2084.54</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3400.71</t>
+          <t>3431.82</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3141.52</t>
+          <t>2798.82</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2759.74</t>
+          <t>2807.52</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2694.13</t>
+          <t>2290.81</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>2093.79</t>
+          <t>1845.65</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>2096.74</t>
+          <t>1834.30</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>2054.51</t>
+          <t>2117.19</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>2047.23</t>
+          <t>2109.31</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3405.27</t>
+          <t>3411.25</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>3153.13</t>
+          <t>2812.52</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2781.80</t>
+          <t>2797.15</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2694.47</t>
+          <t>2304.66</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>2089.58</t>
+          <t>1854.21</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2083.09</t>
+          <t>1842.70</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>2065.55</t>
+          <t>2105.95</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>2058.10</t>
+          <t>2097.90</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3234.50</t>
+          <t>3390.11</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>3170.67</t>
+          <t>2860.34</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2800.77</t>
+          <t>2820.24</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>2713.47</t>
+          <t>2326.86</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>2105.68</t>
+          <t>1866.41</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>2098.99</t>
+          <t>1855.18</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>2080.55</t>
+          <t>2087.64</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>2073.25</t>
+          <t>2083.11</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3338.04</t>
+          <t>3471.50</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>3278.20</t>
+          <t>2929.83</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2878.24</t>
+          <t>2868.91</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>2819.69</t>
+          <t>2430.90</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>2213.60</t>
+          <t>1949.08</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>2217.26</t>
+          <t>1936.70</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2170.48</t>
+          <t>2179.26</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>2163.64</t>
+          <t>2171.84</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>4109.81</t>
+          <t>4270.41</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3937.72</t>
+          <t>3569.06</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3592.95</t>
+          <t>3642.72</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>3392.29</t>
+          <t>2969.02</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>2676.10</t>
+          <t>2308.04</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>2658.28</t>
+          <t>2295.69</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2819.87</t>
+          <t>2863.27</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2818.23</t>
+          <t>2860.81</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2847.73</t>
+          <t>2915.77</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2844.33</t>
+          <t>2226.16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>547.79</t>
+          <t>514.06</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2476.67</t>
+          <t>1959.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1995.31</t>
+          <t>1541.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1987.51</t>
+          <t>1537.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1984.24</t>
+          <t>1994.37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1984.35</t>
+          <t>1993.25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3364.36</t>
+          <t>3433.78</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3203.46</t>
+          <t>2641.75</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2789.80</t>
+          <t>2744.35</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2693.33</t>
+          <t>2168.87</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2108.73</t>
+          <t>1901.16</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2101.85</t>
+          <t>1888.65</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2078.85</t>
+          <t>2083.01</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2068.93</t>
+          <t>2086.80</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3287.16</t>
+          <t>3330.09</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3198.45</t>
+          <t>2627.76</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2772.57</t>
+          <t>2729.73</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2683.09</t>
+          <t>2047.91</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2099.04</t>
+          <t>1873.81</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2088.30</t>
+          <t>1705.36</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2055.29</t>
+          <t>2058.99</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2047.56</t>
+          <t>2055.28</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3368.31</t>
+          <t>3441.95</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>3222.62</t>
+          <t>2491.41</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2784.15</t>
+          <t>2762.54</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2727.24</t>
+          <t>2044.42</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2112.11</t>
+          <t>1951.33</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2103.89</t>
+          <t>1943.83</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2056.12</t>
+          <t>2063.25</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2051.46</t>
+          <t>2057.62</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3350.60</t>
+          <t>3456.41</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3383.70</t>
+          <t>2535.71</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2802.77</t>
+          <t>2809.41</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2760.94</t>
+          <t>2506.89</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2120.46</t>
+          <t>1952.78</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>2112.34</t>
+          <t>1945.59</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>2084.32</t>
+          <t>2070.96</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>2059.36</t>
+          <t>2063.90</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3352.04</t>
+          <t>3466.68</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3308.79</t>
+          <t>2536.42</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2835.19</t>
+          <t>2836.32</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2784.21</t>
+          <t>2516.33</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>2128.51</t>
+          <t>1960.68</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>2120.53</t>
+          <t>1953.50</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>2115.59</t>
+          <t>2107.01</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>2111.50</t>
+          <t>2087.68</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>3353.63</t>
+          <t>3474.22</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>3328.72</t>
+          <t>2540.93</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2866.41</t>
+          <t>2867.89</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2792.73</t>
+          <t>2352.16</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>2136.97</t>
+          <t>1972.31</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2128.96</t>
+          <t>1965.12</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>2122.82</t>
+          <t>2138.24</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>2119.44</t>
+          <t>2113.78</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>3368.53</t>
+          <t>3489.98</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>3356.90</t>
+          <t>2552.83</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2886.03</t>
+          <t>2892.16</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2767.04</t>
+          <t>2107.15</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>2152.58</t>
+          <t>1987.91</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>2144.61</t>
+          <t>1980.68</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>2129.99</t>
+          <t>2143.98</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>2127.98</t>
+          <t>2134.04</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3474.54</t>
+          <t>3601.36</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3499.33</t>
+          <t>2656.56</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2964.34</t>
+          <t>2997.41</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>2884.68</t>
+          <t>2221.44</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>2247.11</t>
+          <t>2078.52</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>2239.07</t>
+          <t>2071.11</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>2228.81</t>
+          <t>2253.22</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>2221.12</t>
+          <t>2244.46</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>4351.19</t>
+          <t>4330.86</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>4235.97</t>
+          <t>3291.91</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>3723.09</t>
+          <t>3758.84</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>3481.78</t>
+          <t>2688.49</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2743.40</t>
+          <t>2082.37</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2728.26</t>
+          <t>2074.11</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2878.06</t>
+          <t>2882.95</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2877.10</t>
+          <t>2881.98</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2882.40</t>
+          <t>2870.36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2842.09</t>
+          <t>2905.09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>369.47</t>
+          <t>538.46</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2545.12</t>
+          <t>2552.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2054.13</t>
+          <t>2103.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2046.98</t>
+          <t>2095.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1968.63</t>
+          <t>2036.37</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1962.67</t>
+          <t>2033.36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3328.47</t>
+          <t>3374.53</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3238.47</t>
+          <t>3188.00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2785.60</t>
+          <t>2718.22</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2745.70</t>
+          <t>2746.17</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2158.06</t>
+          <t>1989.96</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2158.20</t>
+          <t>1979.58</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2093.45</t>
+          <t>2008.60</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2088.82</t>
+          <t>1982.99</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3265.14</t>
+          <t>3282.93</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3230.31</t>
+          <t>3211.40</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2784.14</t>
+          <t>2730.66</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2721.01</t>
+          <t>2725.39</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2134.13</t>
+          <t>1993.44</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2124.12</t>
+          <t>1983.49</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2085.22</t>
+          <t>1988.51</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2077.85</t>
+          <t>1956.23</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3297.42</t>
+          <t>3369.82</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3248.25</t>
+          <t>3210.70</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2789.82</t>
+          <t>2739.81</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2741.02</t>
+          <t>2736.09</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2150.65</t>
+          <t>2171.69</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2142.36</t>
+          <t>2163.63</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>2100.50</t>
+          <t>2091.63</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2091.86</t>
+          <t>2084.49</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>3305.02</t>
+          <t>3392.34</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3282.16</t>
+          <t>3348.03</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2807.32</t>
+          <t>2765.34</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2751.27</t>
+          <t>2753.73</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2140.87</t>
+          <t>2173.44</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>2132.91</t>
+          <t>2165.85</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>2047.28</t>
+          <t>2096.21</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>2043.36</t>
+          <t>2088.87</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3316.88</t>
+          <t>3411.61</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3296.22</t>
+          <t>3349.25</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2821.01</t>
+          <t>2797.80</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2744.24</t>
+          <t>2787.16</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>2142.89</t>
+          <t>2176.03</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>2135.22</t>
+          <t>2168.41</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>2061.64</t>
+          <t>2101.80</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>2049.79</t>
+          <t>2094.32</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>3333.53</t>
+          <t>3426.85</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>3318.39</t>
+          <t>3365.36</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2838.43</t>
+          <t>2820.02</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2759.63</t>
+          <t>2802.31</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>2150.18</t>
+          <t>2191.82</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2142.60</t>
+          <t>2184.14</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>2089.32</t>
+          <t>2114.09</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>2079.03</t>
+          <t>2106.38</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>3354.14</t>
+          <t>3449.17</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>3341.03</t>
+          <t>3382.93</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2860.88</t>
+          <t>2847.96</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2777.00</t>
+          <t>2793.16</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>2165.74</t>
+          <t>2207.73</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>2158.18</t>
+          <t>2199.93</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>2104.92</t>
+          <t>2128.37</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>2096.62</t>
+          <t>2120.70</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3466.34</t>
+          <t>3572.03</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3453.10</t>
+          <t>3484.36</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2954.03</t>
+          <t>2952.15</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2884.70</t>
+          <t>2897.96</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>2263.02</t>
+          <t>2294.34</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>2255.21</t>
+          <t>2287.36</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>2207.05</t>
+          <t>2221.59</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>2198.84</t>
+          <t>2213.68</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>4271.30</t>
+          <t>4367.26</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>4164.97</t>
+          <t>4083.10</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3746.41</t>
+          <t>3689.34</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>3494.76</t>
+          <t>3471.83</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2755.63</t>
+          <t>2739.71</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2729.32</t>
+          <t>2724.17</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2852.52</t>
+          <t>2808.59</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2842.53</t>
+          <t>2806.10</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2772.46</t>
+          <t>2693.86</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2851.87</t>
+          <t>2736.81</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>435.40</t>
+          <t>320.40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2565.22</t>
+          <t>2386.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023.71</t>
+          <t>2008.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2017.87</t>
+          <t>2001.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1924.84</t>
+          <t>1809.34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1912.65</t>
+          <t>1812.66</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3104.21</t>
+          <t>3358.51</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3211.64</t>
+          <t>3141.66</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2717.10</t>
+          <t>2630.30</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2779.09</t>
+          <t>2616.44</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2130.47</t>
+          <t>2090.75</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2123.24</t>
+          <t>2081.94</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2017.23</t>
+          <t>1922.92</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1992.36</t>
+          <t>1922.48</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3131.59</t>
+          <t>3085.47</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3212.30</t>
+          <t>3153.56</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2738.14</t>
+          <t>2609.63</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2751.86</t>
+          <t>2594.81</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2096.84</t>
+          <t>2060.64</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2089.56</t>
+          <t>2051.92</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1965.79</t>
+          <t>1985.41</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1958.91</t>
+          <t>1978.16</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>3109.50</t>
+          <t>3335.40</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3219.45</t>
+          <t>3183.85</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2748.60</t>
+          <t>2613.62</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2772.63</t>
+          <t>2574.61</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2101.20</t>
+          <t>2065.50</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2094.01</t>
+          <t>2056.96</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2003.68</t>
+          <t>1989.71</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1987.85</t>
+          <t>1981.51</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>3135.25</t>
+          <t>3339.21</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3250.37</t>
+          <t>3182.01</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2758.14</t>
+          <t>2629.48</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2781.75</t>
+          <t>2607.72</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2119.25</t>
+          <t>2073.25</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>2111.08</t>
+          <t>2065.72</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1967.53</t>
+          <t>1998.76</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1959.78</t>
+          <t>1990.50</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>3158.55</t>
+          <t>3345.82</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>3262.98</t>
+          <t>3197.36</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2772.14</t>
+          <t>2647.25</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2798.16</t>
+          <t>2626.42</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>2151.38</t>
+          <t>2019.22</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>2143.23</t>
+          <t>2008.90</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1985.35</t>
+          <t>2007.54</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1976.97</t>
+          <t>1999.28</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>3180.47</t>
+          <t>3350.18</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>3275.49</t>
+          <t>3216.69</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2797.96</t>
+          <t>2608.81</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2819.93</t>
+          <t>2644.58</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>2167.25</t>
+          <t>2010.68</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2159.67</t>
+          <t>1997.05</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>2002.50</t>
+          <t>2016.34</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1994.16</t>
+          <t>2008.14</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>3238.46</t>
+          <t>3181.72</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>3287.07</t>
+          <t>3238.29</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2810.99</t>
+          <t>2631.98</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2831.43</t>
+          <t>2669.91</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>2180.47</t>
+          <t>2033.72</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>2172.93</t>
+          <t>2023.35</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>2027.09</t>
+          <t>2030.45</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>2018.79</t>
+          <t>2023.20</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>3354.45</t>
+          <t>3306.93</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3399.19</t>
+          <t>3357.22</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2905.35</t>
+          <t>2730.30</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2941.35</t>
+          <t>2785.09</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>2284.94</t>
+          <t>2135.07</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>2276.95</t>
+          <t>2126.71</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>2130.24</t>
+          <t>2116.58</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>2117.37</t>
+          <t>2109.25</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3981.77</t>
+          <t>4078.42</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>4011.11</t>
+          <t>4093.32</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>3582.73</t>
+          <t>3402.10</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>3552.15</t>
+          <t>3345.54</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2735.38</t>
+          <t>2602.85</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2716.84</t>
+          <t>2580.77</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2684.31</t>
+          <t>2621.21</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2681.15</t>
+          <t>2618.58</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2744.88</t>
+          <t>2434.04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2851.98</t>
+          <t>2516.99</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>792.65</t>
+          <t>263.43</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2563.51</t>
+          <t>2191.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025.52</t>
+          <t>1734.85</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2019.16</t>
+          <t>1730.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1920.29</t>
+          <t>1649.35</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1921.05</t>
+          <t>1662.51</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3093.93</t>
+          <t>2850.28</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3215.06</t>
+          <t>2897.77</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2713.33</t>
+          <t>2423.46</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2755.15</t>
+          <t>2413.23</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2131.02</t>
+          <t>1841.37</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2123.16</t>
+          <t>1834.82</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2006.43</t>
+          <t>1741.04</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1993.47</t>
+          <t>1744.24</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3120.37</t>
+          <t>2800.03</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3188.02</t>
+          <t>2881.51</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2690.27</t>
+          <t>2367.16</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2744.19</t>
+          <t>2404.46</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2093.82</t>
+          <t>1822.05</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2086.08</t>
+          <t>1815.58</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1970.86</t>
+          <t>1726.44</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1963.44</t>
+          <t>1721.66</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>3101.68</t>
+          <t>2848.77</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3202.54</t>
+          <t>2898.53</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2718.13</t>
+          <t>2384.56</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2776.22</t>
+          <t>2426.10</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2097.00</t>
+          <t>1833.43</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2089.34</t>
+          <t>1827.04</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1954.55</t>
+          <t>1737.97</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1946.61</t>
+          <t>1732.23</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>3121.03</t>
+          <t>2867.23</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3212.24</t>
+          <t>2947.80</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2750.33</t>
+          <t>2407.48</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2799.61</t>
+          <t>2447.56</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2105.01</t>
+          <t>1846.63</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>2097.43</t>
+          <t>1840.26</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1968.36</t>
+          <t>1751.47</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1960.52</t>
+          <t>1745.34</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>3162.41</t>
+          <t>2884.00</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>3236.86</t>
+          <t>2963.73</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2779.30</t>
+          <t>2428.52</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2818.49</t>
+          <t>2466.15</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>2113.53</t>
+          <t>1858.56</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>2106.01</t>
+          <t>1852.12</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1985.00</t>
+          <t>1763.60</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1977.16</t>
+          <t>1757.31</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>3180.75</t>
+          <t>2899.94</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>3260.03</t>
+          <t>2982.06</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2806.24</t>
+          <t>2448.08</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2836.32</t>
+          <t>2483.45</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>2124.04</t>
+          <t>1874.53</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2116.21</t>
+          <t>1868.02</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>2001.04</t>
+          <t>1775.44</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1993.16</t>
+          <t>1769.19</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>3204.22</t>
+          <t>2922.28</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>3289.75</t>
+          <t>3004.33</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2839.80</t>
+          <t>2473.42</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2860.81</t>
+          <t>2507.32</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>2147.52</t>
+          <t>1893.17</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2138.93</t>
+          <t>1886.79</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>2025.65</t>
+          <t>1793.92</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>2018.01</t>
+          <t>1787.74</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3323.45</t>
+          <t>3038.03</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3401.44</t>
+          <t>3118.78</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2942.61</t>
+          <t>2568.98</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2972.83</t>
+          <t>2619.21</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>2253.29</t>
+          <t>1988.36</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>2245.51</t>
+          <t>1981.99</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>2135.51</t>
+          <t>1891.84</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>2127.84</t>
+          <t>1885.65</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3978.39</t>
+          <t>3654.27</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>4020.53</t>
+          <t>3699.76</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>3586.84</t>
+          <t>3159.56</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>3581.34</t>
+          <t>3130.07</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2737.57</t>
+          <t>2442.71</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2716.86</t>
+          <t>2423.96</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2724.92</t>
+          <t>2424.45</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2724.92</t>
+          <t>2423.56</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2674.94</t>
+          <t>2206.02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2765.48</t>
+          <t>2303.05</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>831.49</t>
+          <t>401.27</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2452.46</t>
+          <t>1998.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1993.44</t>
+          <t>1585.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1987.14</t>
+          <t>1580.31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1884.91</t>
+          <t>1497.40</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1879.66</t>
+          <t>1515.06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,357 +3182,357 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2959.69</t>
+          <t>2528.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3092.53</t>
+          <t>2618.75</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>2239.41</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2181.54</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1674.33</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1667.55</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1572.33</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1575.36</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2485.21</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2569.63</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>2100.82</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>2144.11</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>1644.32</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>1638.19</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>1551.54</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>1546.93</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2487.03</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2573.73</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>2105.02</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>2153.11</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>1653.17</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>1647.04</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>1560.74</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>1554.98</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>2496.21</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>2579.28</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>2118.07</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>2164.59</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>1664.02</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>1657.85</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>1571.99</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>1566.00</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>2505.00</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>2587.56</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>2130.79</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>2175.19</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>1673.90</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>1667.72</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>1582.36</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>1576.30</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>2494.80</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>2578.30</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>2125.12</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>2187.73</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>1694.33</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>1688.17</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>1598.19</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>1592.10</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>2510.02</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>2593.41</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>2143.08</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>2207.93</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>1710.44</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>1704.26</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>1614.36</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>1608.27</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
           <t>2607.25</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2616.79</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2077.51</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2069.52</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1952.24</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>1945.01</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>2978.51</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>3060.94</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>2566.92</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>2587.87</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>2045.19</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>2037.31</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>1921.31</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>1913.53</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>2949.97</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>3071.99</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>2584.45</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>2608.79</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>2051.62</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>2043.79</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>1928.05</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>1920.20</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>2967.74</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>3052.83</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>2605.35</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>2626.98</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>2062.13</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>2054.33</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>1938.85</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>1931.03</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>2984.02</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>3068.32</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>2624.29</t>
-        </is>
-      </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>2648.17</t>
-        </is>
-      </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>2072.17</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>2064.40</t>
-        </is>
-      </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>1949.18</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr">
-        <is>
-          <t>1941.39</t>
-        </is>
-      </c>
-      <c r="BB8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BC8" t="inlineStr">
-        <is>
-          <t>2999.59</t>
-        </is>
-      </c>
-      <c r="BD8" t="inlineStr">
-        <is>
-          <t>3083.13</t>
-        </is>
-      </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>2642.25</t>
-        </is>
-      </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>2664.15</t>
-        </is>
-      </c>
-      <c r="BG8" t="inlineStr">
-        <is>
-          <t>2082.27</t>
-        </is>
-      </c>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>2074.53</t>
-        </is>
-      </c>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>1959.55</t>
-        </is>
-      </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>1951.79</t>
-        </is>
-      </c>
-      <c r="BK8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>3021.28</t>
-        </is>
-      </c>
-      <c r="BM8" t="inlineStr">
-        <is>
-          <t>3104.30</t>
-        </is>
-      </c>
-      <c r="BN8" t="inlineStr">
-        <is>
-          <t>2665.84</t>
-        </is>
-      </c>
-      <c r="BO8" t="inlineStr">
-        <is>
-          <t>2686.53</t>
-        </is>
-      </c>
-      <c r="BP8" t="inlineStr">
-        <is>
-          <t>2099.49</t>
-        </is>
-      </c>
-      <c r="BQ8" t="inlineStr">
-        <is>
-          <t>2091.80</t>
-        </is>
-      </c>
-      <c r="BR8" t="inlineStr">
-        <is>
-          <t>1976.90</t>
-        </is>
-      </c>
-      <c r="BS8" t="inlineStr">
-        <is>
-          <t>1969.19</t>
-        </is>
-      </c>
-      <c r="BT8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BU8" t="inlineStr">
-        <is>
-          <t>3127.48</t>
-        </is>
-      </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>3209.43</t>
+          <t>2690.30</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2760.74</t>
+          <t>2224.50</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2790.49</t>
+          <t>2308.92</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>2193.61</t>
+          <t>1792.74</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>2185.91</t>
+          <t>1786.54</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>2070.20</t>
+          <t>1699.67</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>2062.48</t>
+          <t>1693.62</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>3682.02</t>
+          <t>3116.88</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3744.14</t>
+          <t>3169.89</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>3231.36</t>
+          <t>2692.03</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>3228.56</t>
+          <t>2837.14</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2577.32</t>
+          <t>2119.05</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2559.73</t>
+          <t>2102.55</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2585.23</t>
+          <t>2092.81</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2583.12</t>
+          <t>2091.60</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2602.80</t>
+          <t>2068.29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2690.94</t>
+          <t>2133.86</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1160.76</t>
+          <t>491.23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2401.10</t>
+          <t>1883.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1935.90</t>
+          <t>1469.09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1929.90</t>
+          <t>1464.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1832.03</t>
+          <t>1395.82</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1829.95</t>
+          <t>1438.02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2843.88</t>
+          <t>2265.23</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3001.96</t>
+          <t>2370.74</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2569.18</t>
+          <t>2088.17</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2564.66</t>
+          <t>2007.70</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2015.07</t>
+          <t>1534.00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2007.47</t>
+          <t>1527.21</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1895.21</t>
+          <t>1450.43</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1890.43</t>
+          <t>1457.94</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2878.72</t>
+          <t>2225.25</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2954.06</t>
+          <t>2282.57</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2508.37</t>
+          <t>1949.00</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2522.30</t>
+          <t>1950.95</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1968.87</t>
+          <t>1473.28</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1961.43</t>
+          <t>1475.18</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1853.15</t>
+          <t>1428.25</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1845.88</t>
+          <t>1426.60</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2825.15</t>
+          <t>2152.97</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2963.74</t>
+          <t>2288.84</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2521.40</t>
+          <t>1919.95</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2541.60</t>
+          <t>1949.91</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1974.61</t>
+          <t>1490.68</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1967.23</t>
+          <t>1486.86</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1860.07</t>
+          <t>1429.83</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1852.66</t>
+          <t>1426.44</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2842.71</t>
+          <t>2158.62</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2915.99</t>
+          <t>2217.83</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2541.73</t>
+          <t>1924.30</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2558.97</t>
+          <t>1954.52</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1984.44</t>
+          <t>1496.49</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1977.08</t>
+          <t>1492.64</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1870.85</t>
+          <t>1435.66</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1863.45</t>
+          <t>1431.92</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2858.72</t>
+          <t>2164.43</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2930.59</t>
+          <t>2224.74</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>2558.43</t>
+          <t>1930.24</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2574.85</t>
+          <t>1961.71</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1993.85</t>
+          <t>1502.33</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1986.53</t>
+          <t>1498.47</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1881.09</t>
+          <t>1441.59</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1873.72</t>
+          <t>1437.76</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2873.96</t>
+          <t>2171.14</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2944.55</t>
+          <t>2232.97</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2576.11</t>
+          <t>1936.33</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2590.01</t>
+          <t>1968.85</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>2003.34</t>
+          <t>1512.74</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1996.04</t>
+          <t>1508.86</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1891.30</t>
+          <t>1447.90</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1883.96</t>
+          <t>1444.07</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2895.06</t>
+          <t>2182.85</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2964.64</t>
+          <t>2245.02</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>2601.52</t>
+          <t>1948.72</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2611.61</t>
+          <t>1981.87</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>2019.69</t>
+          <t>1525.16</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>2012.45</t>
+          <t>1521.28</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1908.30</t>
+          <t>1460.16</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1901.01</t>
+          <t>1456.34</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2992.41</t>
+          <t>2272.52</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>3064.54</t>
+          <t>2335.35</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2690.15</t>
+          <t>2025.29</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2713.09</t>
+          <t>2070.80</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>2112.16</t>
+          <t>1597.48</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>2104.91</t>
+          <t>1593.70</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1998.26</t>
+          <t>1535.46</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1990.98</t>
+          <t>1531.67</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3540.33</t>
+          <t>2823.73</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3592.68</t>
+          <t>2858.66</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>3124.33</t>
+          <t>2483.66</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>3118.26</t>
+          <t>2462.18</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2490.72</t>
+          <t>1943.82</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2474.14</t>
+          <t>1928.65</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2506.84</t>
+          <t>1928.11</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2504.76</t>
+          <t>1929.62</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2555.58</t>
+          <t>2116.41</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2639.97</t>
+          <t>2169.84</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1313.42</t>
+          <t>646.09</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2304.54</t>
+          <t>1885.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1811.49</t>
+          <t>1481.69</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1806.49</t>
+          <t>1476.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1735.31</t>
+          <t>1444.25</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1743.28</t>
+          <t>1459.12</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2628.20</t>
+          <t>2327.17</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2932.46</t>
+          <t>2393.86</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2529.22</t>
+          <t>2143.25</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2485.57</t>
+          <t>2003.17</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1899.17</t>
+          <t>1556.60</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1891.01</t>
+          <t>1548.89</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1800.98</t>
+          <t>1506.79</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1804.41</t>
+          <t>1512.86</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2890.04</t>
+          <t>2301.42</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2918.54</t>
+          <t>2284.89</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2486.04</t>
+          <t>2031.20</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2483.51</t>
+          <t>1926.91</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1876.19</t>
+          <t>1522.89</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1867.65</t>
+          <t>1516.30</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1774.12</t>
+          <t>1474.83</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1772.85</t>
+          <t>1472.75</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2628.07</t>
+          <t>2282.13</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2955.93</t>
+          <t>2278.62</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2511.37</t>
+          <t>2024.77</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2524.40</t>
+          <t>1923.96</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1883.62</t>
+          <t>1521.23</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1875.59</t>
+          <t>1514.30</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1783.06</t>
+          <t>1472.22</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1778.73</t>
+          <t>1468.91</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2646.24</t>
+          <t>2288.95</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2688.88</t>
+          <t>2244.88</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2540.62</t>
+          <t>2034.71</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2550.08</t>
+          <t>1927.27</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1893.97</t>
+          <t>1522.68</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1885.63</t>
+          <t>1516.58</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1795.23</t>
+          <t>1474.67</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1787.66</t>
+          <t>1470.55</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2658.85</t>
+          <t>2295.80</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2706.38</t>
+          <t>2246.92</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2564.27</t>
+          <t>2045.85</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2572.81</t>
+          <t>1931.14</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1911.78</t>
+          <t>1519.08</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1902.54</t>
+          <t>1515.79</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1807.01</t>
+          <t>1477.64</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1799.47</t>
+          <t>1473.26</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2664.46</t>
+          <t>2299.14</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2720.72</t>
+          <t>2252.01</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2589.60</t>
+          <t>2057.01</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2606.95</t>
+          <t>1935.71</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1932.36</t>
+          <t>1526.16</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1923.30</t>
+          <t>1520.16</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1819.72</t>
+          <t>1481.77</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1812.22</t>
+          <t>1477.24</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2684.11</t>
+          <t>2304.73</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2741.58</t>
+          <t>2262.37</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2618.95</t>
+          <t>2073.75</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2644.91</t>
+          <t>1946.91</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1955.49</t>
+          <t>1535.91</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1947.24</t>
+          <t>1529.87</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1838.45</t>
+          <t>1493.83</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1831.39</t>
+          <t>1486.95</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2792.71</t>
+          <t>2376.60</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2851.42</t>
+          <t>2355.91</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2721.85</t>
+          <t>2129.10</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2731.78</t>
+          <t>2033.94</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>2054.09</t>
+          <t>1574.43</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>2045.80</t>
+          <t>1572.22</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1937.37</t>
+          <t>1578.67</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1929.05</t>
+          <t>1571.85</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3434.43</t>
+          <t>2813.40</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3442.95</t>
+          <t>2823.23</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>3024.99</t>
+          <t>2503.78</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>3019.59</t>
+          <t>2442.65</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2451.83</t>
+          <t>1936.20</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2434.56</t>
+          <t>1922.45</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2487.05</t>
+          <t>2039.27</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2486.24</t>
+          <t>2055.84</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2761.18</t>
+          <t>2232.06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2841.11</t>
+          <t>2288.45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1217.99</t>
+          <t>827.15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2523.64</t>
+          <t>1964.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2038.50</t>
+          <t>1523.85</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2031.81</t>
+          <t>1518.65</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1938.71</t>
+          <t>1489.08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1943.48</t>
+          <t>1499.27</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3091.30</t>
+          <t>2415.92</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3151.39</t>
+          <t>2487.95</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2692.43</t>
+          <t>2189.37</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2672.54</t>
+          <t>2035.77</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2111.69</t>
+          <t>1538.53</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2103.17</t>
+          <t>1531.98</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1983.19</t>
+          <t>1538.66</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1979.32</t>
+          <t>1544.28</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>3050.38</t>
+          <t>2435.43</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>3121.18</t>
+          <t>2300.52</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2635.57</t>
+          <t>2109.93</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2648.23</t>
+          <t>1948.09</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2080.14</t>
+          <t>1489.65</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2071.70</t>
+          <t>1485.94</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1950.33</t>
+          <t>1505.84</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1942.76</t>
+          <t>1501.40</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>3087.41</t>
+          <t>2310.35</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3138.07</t>
+          <t>2287.77</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2657.24</t>
+          <t>2110.94</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2673.84</t>
+          <t>1941.20</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2088.23</t>
+          <t>1489.99</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2079.85</t>
+          <t>1486.27</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1958.46</t>
+          <t>1507.72</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1950.20</t>
+          <t>1501.98</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>3109.82</t>
+          <t>2317.56</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3201.74</t>
+          <t>2239.62</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2679.83</t>
+          <t>2120.74</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2696.61</t>
+          <t>1946.12</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2101.10</t>
+          <t>1495.17</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2092.74</t>
+          <t>1491.40</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1971.45</t>
+          <t>1514.72</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1963.12</t>
+          <t>1508.68</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>3130.23</t>
+          <t>2324.94</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3221.30</t>
+          <t>2238.58</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2702.67</t>
+          <t>2133.15</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2717.10</t>
+          <t>1963.91</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2113.30</t>
+          <t>1500.50</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>2104.98</t>
+          <t>1496.72</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1983.81</t>
+          <t>1521.78</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1975.48</t>
+          <t>1515.72</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>3149.61</t>
+          <t>2329.63</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3240.02</t>
+          <t>2241.11</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2724.10</t>
+          <t>2135.87</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2736.35</t>
+          <t>1979.68</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>2125.43</t>
+          <t>1510.51</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2117.14</t>
+          <t>1506.74</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1996.11</t>
+          <t>1529.15</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1987.81</t>
+          <t>1523.02</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>3176.24</t>
+          <t>2335.34</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>3266.57</t>
+          <t>2247.93</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2736.59</t>
+          <t>2144.41</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2747.14</t>
+          <t>1994.99</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>2142.08</t>
+          <t>1521.99</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>2134.50</t>
+          <t>1518.72</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>2027.68</t>
+          <t>1542.79</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>2020.05</t>
+          <t>1536.70</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>3283.53</t>
+          <t>2411.43</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>3376.85</t>
+          <t>2333.79</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2832.56</t>
+          <t>2209.76</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2854.34</t>
+          <t>2059.84</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>2239.11</t>
+          <t>1596.59</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>2231.50</t>
+          <t>1593.44</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>2124.01</t>
+          <t>1630.60</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>2116.34</t>
+          <t>1624.54</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3927.93</t>
+          <t>2987.17</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>3976.05</t>
+          <t>2889.16</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>3461.81</t>
+          <t>2593.17</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>3415.05</t>
+          <t>2424.42</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2632.17</t>
+          <t>1953.85</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2614.16</t>
+          <t>1943.46</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2642.30</t>
+          <t>2122.01</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2639.34</t>
+          <t>2128.83</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2864.18</t>
+          <t>2700.26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2914.81</t>
+          <t>2576.12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1310.77</t>
+          <t>1003.15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2584.59</t>
+          <t>2171.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2059.01</t>
+          <t>1707.65</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2052.74</t>
+          <t>1697.89</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2001.43</t>
+          <t>1772.94</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2027.30</t>
+          <t>1763.19</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3239.98</t>
+          <t>3059.90</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3230.52</t>
+          <t>2908.66</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2806.09</t>
+          <t>2568.63</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2742.73</t>
+          <t>2339.12</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2177.23</t>
+          <t>1787.62</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2169.34</t>
+          <t>1779.92</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2053.82</t>
+          <t>1827.85</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2059.64</t>
+          <t>1823.84</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3230.63</t>
+          <t>2989.13</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3193.67</t>
+          <t>2871.92</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2751.64</t>
+          <t>2510.62</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2723.59</t>
+          <t>2318.67</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2135.77</t>
+          <t>1768.55</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2127.79</t>
+          <t>1761.88</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2032.76</t>
+          <t>1808.15</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2014.77</t>
+          <t>1800.55</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3221.04</t>
+          <t>3012.72</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3205.59</t>
+          <t>2881.37</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2774.65</t>
+          <t>2519.56</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2750.40</t>
+          <t>2334.25</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2110.66</t>
+          <t>1772.59</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2102.98</t>
+          <t>1765.95</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2031.01</t>
+          <t>1818.05</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2031.78</t>
+          <t>1812.57</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3241.48</t>
+          <t>3022.85</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3265.50</t>
+          <t>2908.95</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2801.55</t>
+          <t>2535.84</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2773.65</t>
+          <t>2352.64</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2120.40</t>
+          <t>1786.96</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2112.16</t>
+          <t>1779.88</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2045.68</t>
+          <t>1829.41</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2032.34</t>
+          <t>1823.21</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3260.19</t>
+          <t>3032.01</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3283.89</t>
+          <t>2919.63</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2825.90</t>
+          <t>2551.64</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2794.49</t>
+          <t>2373.15</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2137.72</t>
+          <t>1799.75</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2129.52</t>
+          <t>1792.68</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2065.85</t>
+          <t>1840.81</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2056.64</t>
+          <t>1834.38</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3275.36</t>
+          <t>3042.47</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3301.53</t>
+          <t>2933.82</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2851.72</t>
+          <t>2567.22</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2813.97</t>
+          <t>2390.19</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2154.44</t>
+          <t>1822.37</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2146.27</t>
+          <t>1814.85</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>2087.98</t>
+          <t>1850.45</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>2076.08</t>
+          <t>1844.82</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3294.78</t>
+          <t>3059.88</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3325.80</t>
+          <t>2952.25</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2885.86</t>
+          <t>2588.59</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2839.49</t>
+          <t>2413.40</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2178.35</t>
+          <t>1839.02</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2170.22</t>
+          <t>1832.19</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>2103.70</t>
+          <t>1866.85</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>2098.49</t>
+          <t>1861.18</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3398.32</t>
+          <t>3173.19</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3435.25</t>
+          <t>3060.82</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>3003.08</t>
+          <t>2686.91</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2946.53</t>
+          <t>2517.53</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2289.71</t>
+          <t>1929.23</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2281.84</t>
+          <t>1922.40</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2202.01</t>
+          <t>1967.18</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2195.10</t>
+          <t>1961.81</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4141.83</t>
+          <t>3992.23</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>4014.72</t>
+          <t>3754.15</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3702.13</t>
+          <t>3398.19</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3511.93</t>
+          <t>3057.17</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2714.30</t>
+          <t>2370.72</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2695.78</t>
+          <t>2353.33</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2877.07</t>
+          <t>2614.61</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2876.04</t>
+          <t>2617.43</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2891.02</t>
+          <t>2847.21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2921.76</t>
+          <t>2635.99</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>924.20</t>
+          <t>811.85</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2569.67</t>
+          <t>2236.09</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2088.21</t>
+          <t>1770.51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2081.23</t>
+          <t>1755.39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2066.01</t>
+          <t>1964.82</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2054.78</t>
+          <t>1955.59</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3337.53</t>
+          <t>3302.82</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3246.89</t>
+          <t>3031.18</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2850.64</t>
+          <t>2678.65</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2742.53</t>
+          <t>2451.02</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2195.39</t>
+          <t>1888.83</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2187.04</t>
+          <t>1877.50</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2122.71</t>
+          <t>2037.74</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2123.92</t>
+          <t>2030.88</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3238.09</t>
+          <t>3217.22</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3217.10</t>
+          <t>3026.92</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2809.13</t>
+          <t>2670.44</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2720.08</t>
+          <t>2462.50</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2119.39</t>
+          <t>1895.99</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2110.97</t>
+          <t>1881.50</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2077.07</t>
+          <t>2018.23</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2072.22</t>
+          <t>2010.89</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3333.80</t>
+          <t>3274.43</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3231.28</t>
+          <t>3070.99</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2832.95</t>
+          <t>2699.89</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2722.11</t>
+          <t>2498.06</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2134.23</t>
+          <t>1947.37</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2122.95</t>
+          <t>1938.58</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2084.58</t>
+          <t>2030.73</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2076.73</t>
+          <t>2021.16</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3356.23</t>
+          <t>3288.51</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3259.25</t>
+          <t>3174.79</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2862.56</t>
+          <t>2729.47</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2739.82</t>
+          <t>2541.41</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2144.85</t>
+          <t>1981.58</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2136.87</t>
+          <t>1973.90</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2093.75</t>
+          <t>2045.18</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2089.61</t>
+          <t>2040.41</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3382.34</t>
+          <t>3302.64</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3279.67</t>
+          <t>3187.40</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2897.01</t>
+          <t>2753.80</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2749.91</t>
+          <t>2574.19</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2155.23</t>
+          <t>1973.19</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>2147.67</t>
+          <t>1965.45</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2105.28</t>
+          <t>2060.06</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2097.62</t>
+          <t>2052.17</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3399.37</t>
+          <t>3317.27</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3302.70</t>
+          <t>3205.09</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2918.29</t>
+          <t>2785.91</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2772.39</t>
+          <t>2616.16</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>2180.62</t>
+          <t>1983.99</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2173.11</t>
+          <t>1976.23</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2116.39</t>
+          <t>2062.76</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2108.86</t>
+          <t>2063.83</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3422.28</t>
+          <t>3337.17</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3324.28</t>
+          <t>3224.67</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2937.66</t>
+          <t>2814.41</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2805.45</t>
+          <t>2642.60</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2198.64</t>
+          <t>2000.25</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>2191.18</t>
+          <t>1993.20</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2128.32</t>
+          <t>2064.91</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2126.59</t>
+          <t>2059.04</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3527.42</t>
+          <t>3453.24</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3434.40</t>
+          <t>3340.91</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2989.04</t>
+          <t>2914.00</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2916.98</t>
+          <t>2732.80</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2290.72</t>
+          <t>2094.34</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2283.21</t>
+          <t>2086.99</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2226.15</t>
+          <t>2158.95</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2214.17</t>
+          <t>2153.42</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4302.97</t>
+          <t>4254.99</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>4165.08</t>
+          <t>4103.20</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3795.46</t>
+          <t>3664.46</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3523.52</t>
+          <t>3334.31</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2732.68</t>
+          <t>2606.51</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2713.23</t>
+          <t>2583.61</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2909.26</t>
+          <t>2787.87</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2904.05</t>
+          <t>2797.42</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2924.88</t>
+          <t>2936.28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2843.28</t>
+          <t>2644.45</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>596.69</t>
+          <t>537.12</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2515.93</t>
+          <t>2317.27</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2035.66</t>
+          <t>1875.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2029.38</t>
+          <t>1869.69</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2021.94</t>
+          <t>2070.96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020.59</t>
+          <t>2076.69</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3336.20</t>
+          <t>3431.10</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3189.87</t>
+          <t>3257.72</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2821.30</t>
+          <t>2839.84</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2671.76</t>
+          <t>2466.59</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2119.17</t>
+          <t>2157.71</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2110.25</t>
+          <t>1929.51</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2105.12</t>
+          <t>2149.28</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2100.18</t>
+          <t>2155.36</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3274.90</t>
+          <t>3272.36</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3183.39</t>
+          <t>3219.23</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2792.61</t>
+          <t>2808.46</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2660.31</t>
+          <t>2720.41</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2090.10</t>
+          <t>2115.76</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2082.20</t>
+          <t>2110.72</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2070.97</t>
+          <t>2115.30</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2065.39</t>
+          <t>2109.37</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3277.40</t>
+          <t>3394.71</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3207.94</t>
+          <t>3225.73</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2809.41</t>
+          <t>2824.76</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2677.78</t>
+          <t>2729.33</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2106.78</t>
+          <t>2118.73</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2098.22</t>
+          <t>2111.85</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2079.75</t>
+          <t>2110.36</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2072.31</t>
+          <t>2103.50</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3293.14</t>
+          <t>3353.40</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3326.95</t>
+          <t>3344.16</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2839.63</t>
+          <t>2836.92</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2693.07</t>
+          <t>2743.60</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2126.68</t>
+          <t>2123.83</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2117.06</t>
+          <t>2117.44</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2092.05</t>
+          <t>2137.70</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2085.69</t>
+          <t>2123.15</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3308.84</t>
+          <t>3333.19</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3212.54</t>
+          <t>3352.24</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2860.35</t>
+          <t>2854.51</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2707.36</t>
+          <t>2757.15</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2136.67</t>
+          <t>2129.88</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>2128.97</t>
+          <t>2123.49</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2103.25</t>
+          <t>2148.65</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2095.65</t>
+          <t>2141.32</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3321.26</t>
+          <t>3348.35</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>3227.94</t>
+          <t>3365.89</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2878.67</t>
+          <t>2869.88</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2727.23</t>
+          <t>2770.95</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>2127.86</t>
+          <t>2142.17</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2120.03</t>
+          <t>2135.69</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2112.83</t>
+          <t>2157.13</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2105.28</t>
+          <t>2150.26</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3340.65</t>
+          <t>3369.66</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>3248.79</t>
+          <t>3385.12</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2902.82</t>
+          <t>2880.67</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2752.45</t>
+          <t>2792.53</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>2144.51</t>
+          <t>2159.64</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2136.85</t>
+          <t>2153.14</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2128.23</t>
+          <t>2169.49</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2122.82</t>
+          <t>2162.17</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3441.42</t>
+          <t>3475.83</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3357.18</t>
+          <t>3498.86</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2993.87</t>
+          <t>2957.08</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2869.70</t>
+          <t>2906.95</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2238.62</t>
+          <t>2260.91</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2230.84</t>
+          <t>2254.39</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2239.37</t>
+          <t>2252.17</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2227.97</t>
+          <t>2250.64</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4228.21</t>
+          <t>4136.98</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3989.35</t>
+          <t>3941.97</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3660.40</t>
+          <t>3615.40</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>3429.47</t>
+          <t>3445.81</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2717.88</t>
+          <t>2684.64</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2700.28</t>
+          <t>2666.57</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2903.17</t>
+          <t>2860.71</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2900.98</t>
+          <t>2861.56</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2555.58</t>
+          <t>2068.29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2639.97</t>
+          <t>2133.86</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>369.47</t>
+          <t>263.43</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2304.54</t>
+          <t>1883.90</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1811.49</t>
+          <t>1469.09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1806.49</t>
+          <t>1464.29</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1735.31</t>
+          <t>1395.82</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1743.28</t>
+          <t>1438.02</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2628.20</t>
+          <t>2265.23</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2932.46</t>
+          <t>2370.74</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2529.22</t>
+          <t>2088.17</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2485.57</t>
+          <t>2003.17</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1899.17</t>
+          <t>1534.00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1891.01</t>
+          <t>1527.21</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1800.98</t>
+          <t>1450.43</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1804.41</t>
+          <t>1457.94</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2878.72</t>
+          <t>2225.25</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2918.54</t>
+          <t>2282.57</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2486.04</t>
+          <t>1949.00</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2483.51</t>
+          <t>1926.91</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1876.19</t>
+          <t>1473.28</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1867.65</t>
+          <t>1475.18</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1774.12</t>
+          <t>1428.25</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1772.85</t>
+          <t>1426.60</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2628.07</t>
+          <t>2152.97</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2955.93</t>
+          <t>2278.62</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2511.37</t>
+          <t>1919.95</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2524.40</t>
+          <t>1923.96</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1883.62</t>
+          <t>1489.99</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1875.59</t>
+          <t>1486.27</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1783.06</t>
+          <t>1429.83</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1778.73</t>
+          <t>1426.44</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2646.24</t>
+          <t>2158.62</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2688.88</t>
+          <t>2217.83</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2540.62</t>
+          <t>1924.30</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2550.08</t>
+          <t>1927.27</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1893.97</t>
+          <t>1495.17</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1885.63</t>
+          <t>1491.40</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1795.23</t>
+          <t>1435.66</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1787.66</t>
+          <t>1431.92</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2658.85</t>
+          <t>2164.43</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2706.38</t>
+          <t>2224.74</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2558.43</t>
+          <t>1930.24</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2572.81</t>
+          <t>1931.14</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1911.78</t>
+          <t>1500.50</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1902.54</t>
+          <t>1496.72</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1807.01</t>
+          <t>1441.59</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1799.47</t>
+          <t>1437.76</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2664.46</t>
+          <t>2171.14</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2720.72</t>
+          <t>2232.97</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>2576.11</t>
+          <t>1936.33</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2590.01</t>
+          <t>1935.71</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1932.36</t>
+          <t>1510.51</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1923.30</t>
+          <t>1506.74</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1819.72</t>
+          <t>1447.90</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1812.22</t>
+          <t>1444.07</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2684.11</t>
+          <t>2182.85</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2741.58</t>
+          <t>2245.02</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>2601.52</t>
+          <t>1948.72</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2611.61</t>
+          <t>1946.91</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1955.49</t>
+          <t>1521.99</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1947.24</t>
+          <t>1518.72</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1838.45</t>
+          <t>1460.16</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1831.39</t>
+          <t>1456.34</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2792.71</t>
+          <t>2272.52</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>2851.42</t>
+          <t>2333.79</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>2690.15</t>
+          <t>2025.29</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>2713.09</t>
+          <t>2033.94</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>2054.09</t>
+          <t>1574.43</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>2045.80</t>
+          <t>1572.22</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1937.37</t>
+          <t>1535.46</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1929.05</t>
+          <t>1531.67</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3434.43</t>
+          <t>2813.40</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3442.95</t>
+          <t>2823.23</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>3024.99</t>
+          <t>2483.66</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>3019.59</t>
+          <t>2424.42</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2451.83</t>
+          <t>1936.20</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2434.56</t>
+          <t>1922.45</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2487.05</t>
+          <t>1928.11</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2486.24</t>
+          <t>1929.62</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2924.88</t>
+          <t>2942.65</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2921.76</t>
+          <t>2905.09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1313.42</t>
+          <t>1003.15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2584.59</t>
+          <t>2552.66</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2088.21</t>
+          <t>2103.45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2081.23</t>
+          <t>2095.88</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2066.01</t>
+          <t>2070.96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2054.78</t>
+          <t>2076.69</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3410.67</t>
+          <t>3433.78</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3246.89</t>
+          <t>3257.72</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2850.64</t>
+          <t>2839.84</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2779.09</t>
+          <t>2746.17</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2195.39</t>
+          <t>2157.71</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2187.04</t>
+          <t>2081.94</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2122.71</t>
+          <t>2149.28</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2123.92</t>
+          <t>2155.36</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3287.16</t>
+          <t>3330.09</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3230.31</t>
+          <t>3219.23</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2809.13</t>
+          <t>2808.46</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2751.86</t>
+          <t>2725.39</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2135.77</t>
+          <t>2115.76</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2127.79</t>
+          <t>2110.72</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2085.22</t>
+          <t>2115.30</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2094.61</t>
+          <t>2109.37</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3388.08</t>
+          <t>3441.95</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3248.25</t>
+          <t>3225.73</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2832.95</t>
+          <t>2824.76</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2776.22</t>
+          <t>2736.09</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2150.65</t>
+          <t>2171.69</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2142.36</t>
+          <t>2163.63</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2100.50</t>
+          <t>2110.36</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2091.86</t>
+          <t>2103.50</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3391.89</t>
+          <t>3456.41</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3383.70</t>
+          <t>3348.03</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2862.56</t>
+          <t>2836.92</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2799.61</t>
+          <t>2753.73</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2144.85</t>
+          <t>2173.44</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2136.87</t>
+          <t>2165.85</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2093.75</t>
+          <t>2137.70</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2089.61</t>
+          <t>2123.15</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3400.71</t>
+          <t>3466.68</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3308.79</t>
+          <t>3352.24</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2897.01</t>
+          <t>2854.51</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2818.49</t>
+          <t>2787.16</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2155.23</t>
+          <t>2176.03</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2147.67</t>
+          <t>2168.41</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2115.59</t>
+          <t>2148.65</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2111.50</t>
+          <t>2141.32</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3405.27</t>
+          <t>3474.22</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3328.72</t>
+          <t>3365.89</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2918.29</t>
+          <t>2869.88</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2836.32</t>
+          <t>2802.31</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>2180.62</t>
+          <t>2191.82</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2173.11</t>
+          <t>2184.14</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2122.82</t>
+          <t>2157.13</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2119.44</t>
+          <t>2150.26</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3422.28</t>
+          <t>3489.98</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3356.90</t>
+          <t>3385.12</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2937.66</t>
+          <t>2892.16</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2860.81</t>
+          <t>2793.16</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2198.64</t>
+          <t>2207.73</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2191.18</t>
+          <t>2199.93</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2129.99</t>
+          <t>2169.49</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2127.98</t>
+          <t>2162.17</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3527.42</t>
+          <t>3601.36</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3499.33</t>
+          <t>3498.86</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>3003.08</t>
+          <t>2997.41</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2972.83</t>
+          <t>2906.95</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2290.72</t>
+          <t>2294.34</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2283.21</t>
+          <t>2287.36</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2239.37</t>
+          <t>2253.22</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2227.97</t>
+          <t>2250.64</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4351.19</t>
+          <t>4367.26</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4235.97</t>
+          <t>4103.20</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3795.46</t>
+          <t>3758.84</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3581.34</t>
+          <t>3471.83</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2755.63</t>
+          <t>2739.71</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2729.32</t>
+          <t>2724.17</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2909.26</t>
+          <t>2882.95</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2904.05</t>
+          <t>2881.98</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
